--- a/単体・結合テスト指示書.xlsx
+++ b/単体・結合テスト指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4D066CA252ABDACC10482C7197DD7C72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA1C168-9EC0-4F47-ADC2-88C9BAA11C6E}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="11_AD4D066CA252ABDACC10482C7197DD7C72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDEB67A-9BD0-4D5B-A082-7EF1533894C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4.登録完了画面" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="152">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -75,13 +76,1486 @@
   <si>
     <t>PC: Windows 11, Chrome</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面へ移行</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーの「その他」の横の「アカウント登録」をクリックする</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若狭</t>
+    <rPh sb="0" eb="2">
+      <t>ワカサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面へ移動する</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面表示</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLは、任意のURL/registになっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要修正</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account/registAction.actionとなっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLは、任意のURL/regist_confirmになっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から移行後のURLを確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_confirmAction.actionとなっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLは、任意のURL/regist_completeになっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から移行後のURLを確認</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」を押下後TOPページに移動する</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」をクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページへ移動する</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーの下に「アカウント登録画面」と表示されている</t>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面表示</t>
+    <rPh sb="3" eb="7">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録」を押すとアカウント登録画面へ移動する</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーションバーの「その他」の横に「アカウント登録」がある</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央左側に名前（姓）、名前（名）、カナ（姓）、カナ（名）、メールアドレス、パスワード、性別、郵便番号、住所（都道府県）、住所（市区町村）、住所（番地）、アカウント権限の順番で縦に記載されている</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>ロゴの下にTOPページと同じナビゲーションバーがある</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番上左側にTOPページと同じロゴがある</t>
+    <rPh sb="0" eb="5">
+      <t>イチバンウエヒダリガワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>アカウント登録画面入力欄</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別の右にチェックボックス、男、チェックボックス、女の順に表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：性別の右の男にチェックが表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：住所（市区町村）の右に空欄の入力枠がある</t>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の手順（入力値）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>2-15</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>2-17</t>
+  </si>
+  <si>
+    <t>2-18</t>
+  </si>
+  <si>
+    <t>2-19</t>
+  </si>
+  <si>
+    <t>2-20</t>
+  </si>
+  <si>
+    <t>目視</t>
+    <rPh sb="0" eb="2">
+      <t>モクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーの下に「アカウント登録確認画面」と表示されている</t>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページから移行後のURLを確認</t>
+    <rPh sb="8" eb="11">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認欄</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクナイヨウカクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右にアカウント登録画面で入力した名前（姓）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右にアカウント登録画面で入力した名前（名）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右にアカウント登録画面で入力したカナ（姓）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右にアカウント登録画面でした名前（姓）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右にアカウント登録画面で入力した名前（姓）が表示されている</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別の右にアカウント登録画面で選択した性別が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右にアカウント登録画面で入力したパスワードの文字数分「●」が表示されている</t>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウフン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の右にアカウント登録画面で入力した数字7桁が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の右に空欄のプルダウンが表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：住所（番地）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="7" eb="9">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：アカウント権限の右に「一般」が選択されたのプルダウンが表示されている</t>
+    <rPh sb="12" eb="13">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：名前（姓）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：名前（名）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：カナ（姓）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：メールアドレスの右に空欄の入力枠が表示されている</t>
+    <rPh sb="12" eb="13">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：パスワードの右に空欄の入力枠が表示されている</t>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：郵便番号の右に空欄の入力枠が表示されている</t>
+    <rPh sb="4" eb="8">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：住所（都道府県）の右に空欄のプルダウンが表示されている</t>
+    <rPh sb="13" eb="14">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の下中央に「確認する」のボタンが表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番下にTOPページと同じコピーライトのフッターが表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田山田山田山田山田山</t>
+    <rPh sb="10" eb="11">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のひらがな、漢字を11文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11文字目が消える</t>
+    <rPh sb="2" eb="5">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>TOPページへ戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎太郎太郎太郎太郎太</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>3-15</t>
+  </si>
+  <si>
+    <t>3-16</t>
+  </si>
+  <si>
+    <t>3-17</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のカタカナを11文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマダヤマダヤマダヤマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意の半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）を101文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力欄に101文字以上入れようとすると101文字目が削除される</t>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの入力欄に11文字以上入れようとすると11文字目が削除される</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意の半角英数字を11文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字目が消える</t>
+    <rPh sb="3" eb="6">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意の半角数字を8文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8文字目が消える</t>
+    <rPh sb="1" eb="4">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）のプルダウン内北海道～沖縄の４７都道府県の並び順に47個都道府県名が選択される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンの逆三角形のところ押す</t>
+    <rPh sb="6" eb="7">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サンカッケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択欄に北海道～沖縄まで順番通りに47個表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の入力欄に8文字以上入れようとすると8文字目が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>モジイジョウイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力欄に101文字以上入れようとすると101文字目が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を11文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を101文字入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限のプルダウン内「一般」と「管理者」の選択が表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択欄に「一般」と「管理者」が表示される</t>
+    <rPh sb="0" eb="3">
+      <t>センタクラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-21</t>
+  </si>
+  <si>
+    <t>2-22</t>
+  </si>
+  <si>
+    <t>2-23</t>
+  </si>
+  <si>
+    <t>2-24</t>
+  </si>
+  <si>
+    <t>2-25</t>
+  </si>
+  <si>
+    <t>2-26</t>
+  </si>
+  <si>
+    <t>2-27</t>
+  </si>
+  <si>
+    <t>2-28</t>
+  </si>
+  <si>
+    <t>2-29</t>
+  </si>
+  <si>
+    <t>2-30</t>
+  </si>
+  <si>
+    <t>2-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +1570,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +1588,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,13 +1596,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -404,57 +2012,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="19" customFormat="1" ht="18">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="37.5">
+      <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45903</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45903</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -466,52 +2131,815 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="19" customFormat="1" ht="18">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45903</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45903</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75">
+      <c r="A6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37.5">
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.5">
+      <c r="A16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="37.5">
+      <c r="A19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="37.5">
+      <c r="A20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="37.5">
+      <c r="A21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="37.5">
+      <c r="A22" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45904</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="37.5">
+      <c r="A23" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="37.5">
+      <c r="A24" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="37.5">
+      <c r="A25" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="37.5">
+      <c r="A26" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="37.5">
+      <c r="A27" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="37.5">
+      <c r="A28" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="37.5">
+      <c r="A29" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="37.5">
+      <c r="A30" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="37.5">
+      <c r="A31" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="37.5">
+      <c r="A32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -523,51 +2951,482 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.875" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45903</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="75">
+      <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5">
+      <c r="A7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.5">
+      <c r="A8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="37.5">
+      <c r="A9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="37.5">
+      <c r="A10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="37.5">
+      <c r="A11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="37.5">
+      <c r="A12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="37.5">
+      <c r="A14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="37.5">
+      <c r="A18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="I20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -580,59 +3439,2162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC00FF5A-A12E-44BF-A580-758A46D27A3B}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K658"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="24">
+        <v>45903</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="24">
+        <v>45903</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="11:11">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="11:11">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="11:11">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="11:11">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" s="4"/>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="11:11">
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" spans="11:11">
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="11:11">
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="11:11">
+      <c r="K164" s="4"/>
+    </row>
+    <row r="165" spans="11:11">
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="11:11">
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" spans="11:11">
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="11:11">
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" spans="11:11">
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="11:11">
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" spans="11:11">
+      <c r="K171" s="4"/>
+    </row>
+    <row r="172" spans="11:11">
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="11:11">
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" spans="11:11">
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" spans="11:11">
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="11:11">
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" spans="11:11">
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="11:11">
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="11:11">
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" spans="11:11">
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" spans="11:11">
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="11:11">
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="11:11">
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" spans="11:11">
+      <c r="K184" s="4"/>
+    </row>
+    <row r="185" spans="11:11">
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" spans="11:11">
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" spans="11:11">
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" spans="11:11">
+      <c r="K188" s="4"/>
+    </row>
+    <row r="189" spans="11:11">
+      <c r="K189" s="4"/>
+    </row>
+    <row r="190" spans="11:11">
+      <c r="K190" s="4"/>
+    </row>
+    <row r="191" spans="11:11">
+      <c r="K191" s="4"/>
+    </row>
+    <row r="192" spans="11:11">
+      <c r="K192" s="4"/>
+    </row>
+    <row r="193" spans="11:11">
+      <c r="K193" s="4"/>
+    </row>
+    <row r="194" spans="11:11">
+      <c r="K194" s="4"/>
+    </row>
+    <row r="195" spans="11:11">
+      <c r="K195" s="4"/>
+    </row>
+    <row r="196" spans="11:11">
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="11:11">
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="11:11">
+      <c r="K198" s="4"/>
+    </row>
+    <row r="199" spans="11:11">
+      <c r="K199" s="4"/>
+    </row>
+    <row r="200" spans="11:11">
+      <c r="K200" s="4"/>
+    </row>
+    <row r="201" spans="11:11">
+      <c r="K201" s="4"/>
+    </row>
+    <row r="202" spans="11:11">
+      <c r="K202" s="4"/>
+    </row>
+    <row r="203" spans="11:11">
+      <c r="K203" s="4"/>
+    </row>
+    <row r="204" spans="11:11">
+      <c r="K204" s="4"/>
+    </row>
+    <row r="205" spans="11:11">
+      <c r="K205" s="4"/>
+    </row>
+    <row r="206" spans="11:11">
+      <c r="K206" s="4"/>
+    </row>
+    <row r="207" spans="11:11">
+      <c r="K207" s="4"/>
+    </row>
+    <row r="208" spans="11:11">
+      <c r="K208" s="4"/>
+    </row>
+    <row r="209" spans="11:11">
+      <c r="K209" s="4"/>
+    </row>
+    <row r="210" spans="11:11">
+      <c r="K210" s="4"/>
+    </row>
+    <row r="211" spans="11:11">
+      <c r="K211" s="4"/>
+    </row>
+    <row r="212" spans="11:11">
+      <c r="K212" s="4"/>
+    </row>
+    <row r="213" spans="11:11">
+      <c r="K213" s="4"/>
+    </row>
+    <row r="214" spans="11:11">
+      <c r="K214" s="4"/>
+    </row>
+    <row r="215" spans="11:11">
+      <c r="K215" s="4"/>
+    </row>
+    <row r="216" spans="11:11">
+      <c r="K216" s="4"/>
+    </row>
+    <row r="217" spans="11:11">
+      <c r="K217" s="4"/>
+    </row>
+    <row r="218" spans="11:11">
+      <c r="K218" s="4"/>
+    </row>
+    <row r="219" spans="11:11">
+      <c r="K219" s="4"/>
+    </row>
+    <row r="220" spans="11:11">
+      <c r="K220" s="4"/>
+    </row>
+    <row r="221" spans="11:11">
+      <c r="K221" s="4"/>
+    </row>
+    <row r="222" spans="11:11">
+      <c r="K222" s="4"/>
+    </row>
+    <row r="223" spans="11:11">
+      <c r="K223" s="4"/>
+    </row>
+    <row r="224" spans="11:11">
+      <c r="K224" s="4"/>
+    </row>
+    <row r="225" spans="11:11">
+      <c r="K225" s="4"/>
+    </row>
+    <row r="226" spans="11:11">
+      <c r="K226" s="4"/>
+    </row>
+    <row r="227" spans="11:11">
+      <c r="K227" s="4"/>
+    </row>
+    <row r="228" spans="11:11">
+      <c r="K228" s="4"/>
+    </row>
+    <row r="229" spans="11:11">
+      <c r="K229" s="4"/>
+    </row>
+    <row r="230" spans="11:11">
+      <c r="K230" s="4"/>
+    </row>
+    <row r="231" spans="11:11">
+      <c r="K231" s="4"/>
+    </row>
+    <row r="232" spans="11:11">
+      <c r="K232" s="4"/>
+    </row>
+    <row r="233" spans="11:11">
+      <c r="K233" s="4"/>
+    </row>
+    <row r="234" spans="11:11">
+      <c r="K234" s="4"/>
+    </row>
+    <row r="235" spans="11:11">
+      <c r="K235" s="4"/>
+    </row>
+    <row r="236" spans="11:11">
+      <c r="K236" s="4"/>
+    </row>
+    <row r="237" spans="11:11">
+      <c r="K237" s="4"/>
+    </row>
+    <row r="238" spans="11:11">
+      <c r="K238" s="4"/>
+    </row>
+    <row r="239" spans="11:11">
+      <c r="K239" s="4"/>
+    </row>
+    <row r="240" spans="11:11">
+      <c r="K240" s="4"/>
+    </row>
+    <row r="241" spans="11:11">
+      <c r="K241" s="4"/>
+    </row>
+    <row r="242" spans="11:11">
+      <c r="K242" s="4"/>
+    </row>
+    <row r="243" spans="11:11">
+      <c r="K243" s="4"/>
+    </row>
+    <row r="244" spans="11:11">
+      <c r="K244" s="4"/>
+    </row>
+    <row r="245" spans="11:11">
+      <c r="K245" s="4"/>
+    </row>
+    <row r="246" spans="11:11">
+      <c r="K246" s="4"/>
+    </row>
+    <row r="247" spans="11:11">
+      <c r="K247" s="4"/>
+    </row>
+    <row r="248" spans="11:11">
+      <c r="K248" s="4"/>
+    </row>
+    <row r="249" spans="11:11">
+      <c r="K249" s="4"/>
+    </row>
+    <row r="250" spans="11:11">
+      <c r="K250" s="4"/>
+    </row>
+    <row r="251" spans="11:11">
+      <c r="K251" s="4"/>
+    </row>
+    <row r="252" spans="11:11">
+      <c r="K252" s="4"/>
+    </row>
+    <row r="253" spans="11:11">
+      <c r="K253" s="4"/>
+    </row>
+    <row r="254" spans="11:11">
+      <c r="K254" s="4"/>
+    </row>
+    <row r="255" spans="11:11">
+      <c r="K255" s="4"/>
+    </row>
+    <row r="256" spans="11:11">
+      <c r="K256" s="4"/>
+    </row>
+    <row r="257" spans="11:11">
+      <c r="K257" s="4"/>
+    </row>
+    <row r="258" spans="11:11">
+      <c r="K258" s="4"/>
+    </row>
+    <row r="259" spans="11:11">
+      <c r="K259" s="4"/>
+    </row>
+    <row r="260" spans="11:11">
+      <c r="K260" s="4"/>
+    </row>
+    <row r="261" spans="11:11">
+      <c r="K261" s="4"/>
+    </row>
+    <row r="262" spans="11:11">
+      <c r="K262" s="4"/>
+    </row>
+    <row r="263" spans="11:11">
+      <c r="K263" s="4"/>
+    </row>
+    <row r="264" spans="11:11">
+      <c r="K264" s="4"/>
+    </row>
+    <row r="265" spans="11:11">
+      <c r="K265" s="4"/>
+    </row>
+    <row r="266" spans="11:11">
+      <c r="K266" s="4"/>
+    </row>
+    <row r="267" spans="11:11">
+      <c r="K267" s="4"/>
+    </row>
+    <row r="268" spans="11:11">
+      <c r="K268" s="4"/>
+    </row>
+    <row r="269" spans="11:11">
+      <c r="K269" s="4"/>
+    </row>
+    <row r="270" spans="11:11">
+      <c r="K270" s="4"/>
+    </row>
+    <row r="271" spans="11:11">
+      <c r="K271" s="4"/>
+    </row>
+    <row r="272" spans="11:11">
+      <c r="K272" s="4"/>
+    </row>
+    <row r="273" spans="11:11">
+      <c r="K273" s="4"/>
+    </row>
+    <row r="274" spans="11:11">
+      <c r="K274" s="4"/>
+    </row>
+    <row r="275" spans="11:11">
+      <c r="K275" s="4"/>
+    </row>
+    <row r="276" spans="11:11">
+      <c r="K276" s="4"/>
+    </row>
+    <row r="277" spans="11:11">
+      <c r="K277" s="4"/>
+    </row>
+    <row r="278" spans="11:11">
+      <c r="K278" s="4"/>
+    </row>
+    <row r="279" spans="11:11">
+      <c r="K279" s="4"/>
+    </row>
+    <row r="280" spans="11:11">
+      <c r="K280" s="4"/>
+    </row>
+    <row r="281" spans="11:11">
+      <c r="K281" s="4"/>
+    </row>
+    <row r="282" spans="11:11">
+      <c r="K282" s="4"/>
+    </row>
+    <row r="283" spans="11:11">
+      <c r="K283" s="4"/>
+    </row>
+    <row r="284" spans="11:11">
+      <c r="K284" s="4"/>
+    </row>
+    <row r="285" spans="11:11">
+      <c r="K285" s="4"/>
+    </row>
+    <row r="286" spans="11:11">
+      <c r="K286" s="4"/>
+    </row>
+    <row r="287" spans="11:11">
+      <c r="K287" s="4"/>
+    </row>
+    <row r="288" spans="11:11">
+      <c r="K288" s="4"/>
+    </row>
+    <row r="289" spans="11:11">
+      <c r="K289" s="4"/>
+    </row>
+    <row r="290" spans="11:11">
+      <c r="K290" s="4"/>
+    </row>
+    <row r="291" spans="11:11">
+      <c r="K291" s="4"/>
+    </row>
+    <row r="292" spans="11:11">
+      <c r="K292" s="4"/>
+    </row>
+    <row r="293" spans="11:11">
+      <c r="K293" s="4"/>
+    </row>
+    <row r="294" spans="11:11">
+      <c r="K294" s="4"/>
+    </row>
+    <row r="295" spans="11:11">
+      <c r="K295" s="4"/>
+    </row>
+    <row r="296" spans="11:11">
+      <c r="K296" s="4"/>
+    </row>
+    <row r="297" spans="11:11">
+      <c r="K297" s="4"/>
+    </row>
+    <row r="298" spans="11:11">
+      <c r="K298" s="4"/>
+    </row>
+    <row r="299" spans="11:11">
+      <c r="K299" s="4"/>
+    </row>
+    <row r="300" spans="11:11">
+      <c r="K300" s="4"/>
+    </row>
+    <row r="301" spans="11:11">
+      <c r="K301" s="4"/>
+    </row>
+    <row r="302" spans="11:11">
+      <c r="K302" s="4"/>
+    </row>
+    <row r="303" spans="11:11">
+      <c r="K303" s="4"/>
+    </row>
+    <row r="304" spans="11:11">
+      <c r="K304" s="4"/>
+    </row>
+    <row r="305" spans="11:11">
+      <c r="K305" s="4"/>
+    </row>
+    <row r="306" spans="11:11">
+      <c r="K306" s="4"/>
+    </row>
+    <row r="307" spans="11:11">
+      <c r="K307" s="4"/>
+    </row>
+    <row r="308" spans="11:11">
+      <c r="K308" s="4"/>
+    </row>
+    <row r="309" spans="11:11">
+      <c r="K309" s="4"/>
+    </row>
+    <row r="310" spans="11:11">
+      <c r="K310" s="4"/>
+    </row>
+    <row r="311" spans="11:11">
+      <c r="K311" s="4"/>
+    </row>
+    <row r="312" spans="11:11">
+      <c r="K312" s="4"/>
+    </row>
+    <row r="313" spans="11:11">
+      <c r="K313" s="4"/>
+    </row>
+    <row r="314" spans="11:11">
+      <c r="K314" s="4"/>
+    </row>
+    <row r="315" spans="11:11">
+      <c r="K315" s="4"/>
+    </row>
+    <row r="316" spans="11:11">
+      <c r="K316" s="4"/>
+    </row>
+    <row r="317" spans="11:11">
+      <c r="K317" s="4"/>
+    </row>
+    <row r="318" spans="11:11">
+      <c r="K318" s="4"/>
+    </row>
+    <row r="319" spans="11:11">
+      <c r="K319" s="4"/>
+    </row>
+    <row r="320" spans="11:11">
+      <c r="K320" s="4"/>
+    </row>
+    <row r="321" spans="11:11">
+      <c r="K321" s="4"/>
+    </row>
+    <row r="322" spans="11:11">
+      <c r="K322" s="4"/>
+    </row>
+    <row r="323" spans="11:11">
+      <c r="K323" s="4"/>
+    </row>
+    <row r="324" spans="11:11">
+      <c r="K324" s="4"/>
+    </row>
+    <row r="325" spans="11:11">
+      <c r="K325" s="4"/>
+    </row>
+    <row r="326" spans="11:11">
+      <c r="K326" s="4"/>
+    </row>
+    <row r="327" spans="11:11">
+      <c r="K327" s="4"/>
+    </row>
+    <row r="328" spans="11:11">
+      <c r="K328" s="4"/>
+    </row>
+    <row r="329" spans="11:11">
+      <c r="K329" s="4"/>
+    </row>
+    <row r="330" spans="11:11">
+      <c r="K330" s="4"/>
+    </row>
+    <row r="331" spans="11:11">
+      <c r="K331" s="4"/>
+    </row>
+    <row r="332" spans="11:11">
+      <c r="K332" s="4"/>
+    </row>
+    <row r="333" spans="11:11">
+      <c r="K333" s="4"/>
+    </row>
+    <row r="334" spans="11:11">
+      <c r="K334" s="4"/>
+    </row>
+    <row r="335" spans="11:11">
+      <c r="K335" s="4"/>
+    </row>
+    <row r="336" spans="11:11">
+      <c r="K336" s="4"/>
+    </row>
+    <row r="337" spans="11:11">
+      <c r="K337" s="4"/>
+    </row>
+    <row r="338" spans="11:11">
+      <c r="K338" s="4"/>
+    </row>
+    <row r="339" spans="11:11">
+      <c r="K339" s="4"/>
+    </row>
+    <row r="340" spans="11:11">
+      <c r="K340" s="4"/>
+    </row>
+    <row r="341" spans="11:11">
+      <c r="K341" s="4"/>
+    </row>
+    <row r="342" spans="11:11">
+      <c r="K342" s="4"/>
+    </row>
+    <row r="343" spans="11:11">
+      <c r="K343" s="4"/>
+    </row>
+    <row r="344" spans="11:11">
+      <c r="K344" s="4"/>
+    </row>
+    <row r="345" spans="11:11">
+      <c r="K345" s="4"/>
+    </row>
+    <row r="346" spans="11:11">
+      <c r="K346" s="4"/>
+    </row>
+    <row r="347" spans="11:11">
+      <c r="K347" s="4"/>
+    </row>
+    <row r="348" spans="11:11">
+      <c r="K348" s="4"/>
+    </row>
+    <row r="349" spans="11:11">
+      <c r="K349" s="4"/>
+    </row>
+    <row r="350" spans="11:11">
+      <c r="K350" s="4"/>
+    </row>
+    <row r="351" spans="11:11">
+      <c r="K351" s="4"/>
+    </row>
+    <row r="352" spans="11:11">
+      <c r="K352" s="4"/>
+    </row>
+    <row r="353" spans="11:11">
+      <c r="K353" s="4"/>
+    </row>
+    <row r="354" spans="11:11">
+      <c r="K354" s="4"/>
+    </row>
+    <row r="355" spans="11:11">
+      <c r="K355" s="4"/>
+    </row>
+    <row r="356" spans="11:11">
+      <c r="K356" s="4"/>
+    </row>
+    <row r="357" spans="11:11">
+      <c r="K357" s="4"/>
+    </row>
+    <row r="358" spans="11:11">
+      <c r="K358" s="4"/>
+    </row>
+    <row r="359" spans="11:11">
+      <c r="K359" s="4"/>
+    </row>
+    <row r="360" spans="11:11">
+      <c r="K360" s="4"/>
+    </row>
+    <row r="361" spans="11:11">
+      <c r="K361" s="4"/>
+    </row>
+    <row r="362" spans="11:11">
+      <c r="K362" s="4"/>
+    </row>
+    <row r="363" spans="11:11">
+      <c r="K363" s="4"/>
+    </row>
+    <row r="364" spans="11:11">
+      <c r="K364" s="4"/>
+    </row>
+    <row r="365" spans="11:11">
+      <c r="K365" s="4"/>
+    </row>
+    <row r="366" spans="11:11">
+      <c r="K366" s="4"/>
+    </row>
+    <row r="367" spans="11:11">
+      <c r="K367" s="4"/>
+    </row>
+    <row r="368" spans="11:11">
+      <c r="K368" s="4"/>
+    </row>
+    <row r="369" spans="11:11">
+      <c r="K369" s="4"/>
+    </row>
+    <row r="370" spans="11:11">
+      <c r="K370" s="4"/>
+    </row>
+    <row r="371" spans="11:11">
+      <c r="K371" s="4"/>
+    </row>
+    <row r="372" spans="11:11">
+      <c r="K372" s="4"/>
+    </row>
+    <row r="373" spans="11:11">
+      <c r="K373" s="4"/>
+    </row>
+    <row r="374" spans="11:11">
+      <c r="K374" s="4"/>
+    </row>
+    <row r="375" spans="11:11">
+      <c r="K375" s="4"/>
+    </row>
+    <row r="376" spans="11:11">
+      <c r="K376" s="4"/>
+    </row>
+    <row r="377" spans="11:11">
+      <c r="K377" s="4"/>
+    </row>
+    <row r="378" spans="11:11">
+      <c r="K378" s="4"/>
+    </row>
+    <row r="379" spans="11:11">
+      <c r="K379" s="4"/>
+    </row>
+    <row r="380" spans="11:11">
+      <c r="K380" s="4"/>
+    </row>
+    <row r="381" spans="11:11">
+      <c r="K381" s="4"/>
+    </row>
+    <row r="382" spans="11:11">
+      <c r="K382" s="4"/>
+    </row>
+    <row r="383" spans="11:11">
+      <c r="K383" s="4"/>
+    </row>
+    <row r="384" spans="11:11">
+      <c r="K384" s="4"/>
+    </row>
+    <row r="385" spans="11:11">
+      <c r="K385" s="4"/>
+    </row>
+    <row r="386" spans="11:11">
+      <c r="K386" s="4"/>
+    </row>
+    <row r="387" spans="11:11">
+      <c r="K387" s="4"/>
+    </row>
+    <row r="388" spans="11:11">
+      <c r="K388" s="4"/>
+    </row>
+    <row r="389" spans="11:11">
+      <c r="K389" s="4"/>
+    </row>
+    <row r="390" spans="11:11">
+      <c r="K390" s="4"/>
+    </row>
+    <row r="391" spans="11:11">
+      <c r="K391" s="4"/>
+    </row>
+    <row r="392" spans="11:11">
+      <c r="K392" s="4"/>
+    </row>
+    <row r="393" spans="11:11">
+      <c r="K393" s="4"/>
+    </row>
+    <row r="394" spans="11:11">
+      <c r="K394" s="4"/>
+    </row>
+    <row r="395" spans="11:11">
+      <c r="K395" s="4"/>
+    </row>
+    <row r="396" spans="11:11">
+      <c r="K396" s="4"/>
+    </row>
+    <row r="397" spans="11:11">
+      <c r="K397" s="4"/>
+    </row>
+    <row r="398" spans="11:11">
+      <c r="K398" s="4"/>
+    </row>
+    <row r="399" spans="11:11">
+      <c r="K399" s="4"/>
+    </row>
+    <row r="400" spans="11:11">
+      <c r="K400" s="4"/>
+    </row>
+    <row r="401" spans="11:11">
+      <c r="K401" s="4"/>
+    </row>
+    <row r="402" spans="11:11">
+      <c r="K402" s="4"/>
+    </row>
+    <row r="403" spans="11:11">
+      <c r="K403" s="4"/>
+    </row>
+    <row r="404" spans="11:11">
+      <c r="K404" s="4"/>
+    </row>
+    <row r="405" spans="11:11">
+      <c r="K405" s="4"/>
+    </row>
+    <row r="406" spans="11:11">
+      <c r="K406" s="4"/>
+    </row>
+    <row r="407" spans="11:11">
+      <c r="K407" s="4"/>
+    </row>
+    <row r="408" spans="11:11">
+      <c r="K408" s="4"/>
+    </row>
+    <row r="409" spans="11:11">
+      <c r="K409" s="4"/>
+    </row>
+    <row r="410" spans="11:11">
+      <c r="K410" s="4"/>
+    </row>
+    <row r="411" spans="11:11">
+      <c r="K411" s="4"/>
+    </row>
+    <row r="412" spans="11:11">
+      <c r="K412" s="4"/>
+    </row>
+    <row r="413" spans="11:11">
+      <c r="K413" s="4"/>
+    </row>
+    <row r="414" spans="11:11">
+      <c r="K414" s="4"/>
+    </row>
+    <row r="415" spans="11:11">
+      <c r="K415" s="4"/>
+    </row>
+    <row r="416" spans="11:11">
+      <c r="K416" s="4"/>
+    </row>
+    <row r="417" spans="11:11">
+      <c r="K417" s="4"/>
+    </row>
+    <row r="418" spans="11:11">
+      <c r="K418" s="4"/>
+    </row>
+    <row r="419" spans="11:11">
+      <c r="K419" s="4"/>
+    </row>
+    <row r="420" spans="11:11">
+      <c r="K420" s="4"/>
+    </row>
+    <row r="421" spans="11:11">
+      <c r="K421" s="4"/>
+    </row>
+    <row r="422" spans="11:11">
+      <c r="K422" s="4"/>
+    </row>
+    <row r="423" spans="11:11">
+      <c r="K423" s="4"/>
+    </row>
+    <row r="424" spans="11:11">
+      <c r="K424" s="4"/>
+    </row>
+    <row r="425" spans="11:11">
+      <c r="K425" s="4"/>
+    </row>
+    <row r="426" spans="11:11">
+      <c r="K426" s="4"/>
+    </row>
+    <row r="427" spans="11:11">
+      <c r="K427" s="4"/>
+    </row>
+    <row r="428" spans="11:11">
+      <c r="K428" s="4"/>
+    </row>
+    <row r="429" spans="11:11">
+      <c r="K429" s="4"/>
+    </row>
+    <row r="430" spans="11:11">
+      <c r="K430" s="4"/>
+    </row>
+    <row r="431" spans="11:11">
+      <c r="K431" s="4"/>
+    </row>
+    <row r="432" spans="11:11">
+      <c r="K432" s="4"/>
+    </row>
+    <row r="433" spans="11:11">
+      <c r="K433" s="4"/>
+    </row>
+    <row r="434" spans="11:11">
+      <c r="K434" s="4"/>
+    </row>
+    <row r="435" spans="11:11">
+      <c r="K435" s="4"/>
+    </row>
+    <row r="436" spans="11:11">
+      <c r="K436" s="4"/>
+    </row>
+    <row r="437" spans="11:11">
+      <c r="K437" s="4"/>
+    </row>
+    <row r="438" spans="11:11">
+      <c r="K438" s="4"/>
+    </row>
+    <row r="439" spans="11:11">
+      <c r="K439" s="4"/>
+    </row>
+    <row r="440" spans="11:11">
+      <c r="K440" s="4"/>
+    </row>
+    <row r="441" spans="11:11">
+      <c r="K441" s="4"/>
+    </row>
+    <row r="442" spans="11:11">
+      <c r="K442" s="4"/>
+    </row>
+    <row r="443" spans="11:11">
+      <c r="K443" s="4"/>
+    </row>
+    <row r="444" spans="11:11">
+      <c r="K444" s="4"/>
+    </row>
+    <row r="445" spans="11:11">
+      <c r="K445" s="4"/>
+    </row>
+    <row r="446" spans="11:11">
+      <c r="K446" s="4"/>
+    </row>
+    <row r="447" spans="11:11">
+      <c r="K447" s="4"/>
+    </row>
+    <row r="448" spans="11:11">
+      <c r="K448" s="4"/>
+    </row>
+    <row r="449" spans="11:11">
+      <c r="K449" s="4"/>
+    </row>
+    <row r="450" spans="11:11">
+      <c r="K450" s="4"/>
+    </row>
+    <row r="451" spans="11:11">
+      <c r="K451" s="4"/>
+    </row>
+    <row r="452" spans="11:11">
+      <c r="K452" s="4"/>
+    </row>
+    <row r="453" spans="11:11">
+      <c r="K453" s="4"/>
+    </row>
+    <row r="454" spans="11:11">
+      <c r="K454" s="4"/>
+    </row>
+    <row r="455" spans="11:11">
+      <c r="K455" s="4"/>
+    </row>
+    <row r="456" spans="11:11">
+      <c r="K456" s="4"/>
+    </row>
+    <row r="457" spans="11:11">
+      <c r="K457" s="4"/>
+    </row>
+    <row r="458" spans="11:11">
+      <c r="K458" s="4"/>
+    </row>
+    <row r="459" spans="11:11">
+      <c r="K459" s="4"/>
+    </row>
+    <row r="460" spans="11:11">
+      <c r="K460" s="4"/>
+    </row>
+    <row r="461" spans="11:11">
+      <c r="K461" s="4"/>
+    </row>
+    <row r="462" spans="11:11">
+      <c r="K462" s="4"/>
+    </row>
+    <row r="463" spans="11:11">
+      <c r="K463" s="4"/>
+    </row>
+    <row r="464" spans="11:11">
+      <c r="K464" s="4"/>
+    </row>
+    <row r="465" spans="11:11">
+      <c r="K465" s="4"/>
+    </row>
+    <row r="466" spans="11:11">
+      <c r="K466" s="4"/>
+    </row>
+    <row r="467" spans="11:11">
+      <c r="K467" s="4"/>
+    </row>
+    <row r="468" spans="11:11">
+      <c r="K468" s="4"/>
+    </row>
+    <row r="469" spans="11:11">
+      <c r="K469" s="4"/>
+    </row>
+    <row r="470" spans="11:11">
+      <c r="K470" s="4"/>
+    </row>
+    <row r="471" spans="11:11">
+      <c r="K471" s="4"/>
+    </row>
+    <row r="472" spans="11:11">
+      <c r="K472" s="4"/>
+    </row>
+    <row r="473" spans="11:11">
+      <c r="K473" s="4"/>
+    </row>
+    <row r="474" spans="11:11">
+      <c r="K474" s="4"/>
+    </row>
+    <row r="475" spans="11:11">
+      <c r="K475" s="4"/>
+    </row>
+    <row r="476" spans="11:11">
+      <c r="K476" s="4"/>
+    </row>
+    <row r="477" spans="11:11">
+      <c r="K477" s="4"/>
+    </row>
+    <row r="478" spans="11:11">
+      <c r="K478" s="4"/>
+    </row>
+    <row r="479" spans="11:11">
+      <c r="K479" s="4"/>
+    </row>
+    <row r="480" spans="11:11">
+      <c r="K480" s="4"/>
+    </row>
+    <row r="481" spans="11:11">
+      <c r="K481" s="4"/>
+    </row>
+    <row r="482" spans="11:11">
+      <c r="K482" s="4"/>
+    </row>
+    <row r="483" spans="11:11">
+      <c r="K483" s="4"/>
+    </row>
+    <row r="484" spans="11:11">
+      <c r="K484" s="4"/>
+    </row>
+    <row r="485" spans="11:11">
+      <c r="K485" s="4"/>
+    </row>
+    <row r="486" spans="11:11">
+      <c r="K486" s="4"/>
+    </row>
+    <row r="487" spans="11:11">
+      <c r="K487" s="4"/>
+    </row>
+    <row r="488" spans="11:11">
+      <c r="K488" s="4"/>
+    </row>
+    <row r="489" spans="11:11">
+      <c r="K489" s="4"/>
+    </row>
+    <row r="490" spans="11:11">
+      <c r="K490" s="4"/>
+    </row>
+    <row r="491" spans="11:11">
+      <c r="K491" s="4"/>
+    </row>
+    <row r="492" spans="11:11">
+      <c r="K492" s="4"/>
+    </row>
+    <row r="493" spans="11:11">
+      <c r="K493" s="4"/>
+    </row>
+    <row r="494" spans="11:11">
+      <c r="K494" s="4"/>
+    </row>
+    <row r="495" spans="11:11">
+      <c r="K495" s="4"/>
+    </row>
+    <row r="496" spans="11:11">
+      <c r="K496" s="4"/>
+    </row>
+    <row r="497" spans="11:11">
+      <c r="K497" s="4"/>
+    </row>
+    <row r="498" spans="11:11">
+      <c r="K498" s="4"/>
+    </row>
+    <row r="499" spans="11:11">
+      <c r="K499" s="4"/>
+    </row>
+    <row r="500" spans="11:11">
+      <c r="K500" s="4"/>
+    </row>
+    <row r="501" spans="11:11">
+      <c r="K501" s="4"/>
+    </row>
+    <row r="502" spans="11:11">
+      <c r="K502" s="4"/>
+    </row>
+    <row r="503" spans="11:11">
+      <c r="K503" s="4"/>
+    </row>
+    <row r="504" spans="11:11">
+      <c r="K504" s="4"/>
+    </row>
+    <row r="505" spans="11:11">
+      <c r="K505" s="4"/>
+    </row>
+    <row r="506" spans="11:11">
+      <c r="K506" s="4"/>
+    </row>
+    <row r="507" spans="11:11">
+      <c r="K507" s="4"/>
+    </row>
+    <row r="508" spans="11:11">
+      <c r="K508" s="4"/>
+    </row>
+    <row r="509" spans="11:11">
+      <c r="K509" s="4"/>
+    </row>
+    <row r="510" spans="11:11">
+      <c r="K510" s="4"/>
+    </row>
+    <row r="511" spans="11:11">
+      <c r="K511" s="4"/>
+    </row>
+    <row r="512" spans="11:11">
+      <c r="K512" s="4"/>
+    </row>
+    <row r="513" spans="11:11">
+      <c r="K513" s="4"/>
+    </row>
+    <row r="514" spans="11:11">
+      <c r="K514" s="4"/>
+    </row>
+    <row r="515" spans="11:11">
+      <c r="K515" s="4"/>
+    </row>
+    <row r="516" spans="11:11">
+      <c r="K516" s="4"/>
+    </row>
+    <row r="517" spans="11:11">
+      <c r="K517" s="4"/>
+    </row>
+    <row r="518" spans="11:11">
+      <c r="K518" s="4"/>
+    </row>
+    <row r="519" spans="11:11">
+      <c r="K519" s="4"/>
+    </row>
+    <row r="520" spans="11:11">
+      <c r="K520" s="4"/>
+    </row>
+    <row r="521" spans="11:11">
+      <c r="K521" s="4"/>
+    </row>
+    <row r="522" spans="11:11">
+      <c r="K522" s="4"/>
+    </row>
+    <row r="523" spans="11:11">
+      <c r="K523" s="4"/>
+    </row>
+    <row r="524" spans="11:11">
+      <c r="K524" s="4"/>
+    </row>
+    <row r="525" spans="11:11">
+      <c r="K525" s="4"/>
+    </row>
+    <row r="526" spans="11:11">
+      <c r="K526" s="4"/>
+    </row>
+    <row r="527" spans="11:11">
+      <c r="K527" s="4"/>
+    </row>
+    <row r="528" spans="11:11">
+      <c r="K528" s="4"/>
+    </row>
+    <row r="529" spans="11:11">
+      <c r="K529" s="4"/>
+    </row>
+    <row r="530" spans="11:11">
+      <c r="K530" s="4"/>
+    </row>
+    <row r="531" spans="11:11">
+      <c r="K531" s="4"/>
+    </row>
+    <row r="532" spans="11:11">
+      <c r="K532" s="4"/>
+    </row>
+    <row r="533" spans="11:11">
+      <c r="K533" s="4"/>
+    </row>
+    <row r="534" spans="11:11">
+      <c r="K534" s="4"/>
+    </row>
+    <row r="535" spans="11:11">
+      <c r="K535" s="4"/>
+    </row>
+    <row r="536" spans="11:11">
+      <c r="K536" s="4"/>
+    </row>
+    <row r="537" spans="11:11">
+      <c r="K537" s="4"/>
+    </row>
+    <row r="538" spans="11:11">
+      <c r="K538" s="4"/>
+    </row>
+    <row r="539" spans="11:11">
+      <c r="K539" s="4"/>
+    </row>
+    <row r="540" spans="11:11">
+      <c r="K540" s="4"/>
+    </row>
+    <row r="541" spans="11:11">
+      <c r="K541" s="4"/>
+    </row>
+    <row r="542" spans="11:11">
+      <c r="K542" s="4"/>
+    </row>
+    <row r="543" spans="11:11">
+      <c r="K543" s="4"/>
+    </row>
+    <row r="544" spans="11:11">
+      <c r="K544" s="4"/>
+    </row>
+    <row r="545" spans="11:11">
+      <c r="K545" s="4"/>
+    </row>
+    <row r="546" spans="11:11">
+      <c r="K546" s="4"/>
+    </row>
+    <row r="547" spans="11:11">
+      <c r="K547" s="4"/>
+    </row>
+    <row r="548" spans="11:11">
+      <c r="K548" s="4"/>
+    </row>
+    <row r="549" spans="11:11">
+      <c r="K549" s="4"/>
+    </row>
+    <row r="550" spans="11:11">
+      <c r="K550" s="4"/>
+    </row>
+    <row r="551" spans="11:11">
+      <c r="K551" s="4"/>
+    </row>
+    <row r="552" spans="11:11">
+      <c r="K552" s="4"/>
+    </row>
+    <row r="553" spans="11:11">
+      <c r="K553" s="4"/>
+    </row>
+    <row r="554" spans="11:11">
+      <c r="K554" s="4"/>
+    </row>
+    <row r="555" spans="11:11">
+      <c r="K555" s="4"/>
+    </row>
+    <row r="556" spans="11:11">
+      <c r="K556" s="4"/>
+    </row>
+    <row r="557" spans="11:11">
+      <c r="K557" s="4"/>
+    </row>
+    <row r="558" spans="11:11">
+      <c r="K558" s="4"/>
+    </row>
+    <row r="559" spans="11:11">
+      <c r="K559" s="4"/>
+    </row>
+    <row r="560" spans="11:11">
+      <c r="K560" s="4"/>
+    </row>
+    <row r="561" spans="11:11">
+      <c r="K561" s="4"/>
+    </row>
+    <row r="562" spans="11:11">
+      <c r="K562" s="4"/>
+    </row>
+    <row r="563" spans="11:11">
+      <c r="K563" s="4"/>
+    </row>
+    <row r="564" spans="11:11">
+      <c r="K564" s="4"/>
+    </row>
+    <row r="565" spans="11:11">
+      <c r="K565" s="4"/>
+    </row>
+    <row r="566" spans="11:11">
+      <c r="K566" s="4"/>
+    </row>
+    <row r="567" spans="11:11">
+      <c r="K567" s="4"/>
+    </row>
+    <row r="568" spans="11:11">
+      <c r="K568" s="4"/>
+    </row>
+    <row r="569" spans="11:11">
+      <c r="K569" s="4"/>
+    </row>
+    <row r="570" spans="11:11">
+      <c r="K570" s="4"/>
+    </row>
+    <row r="571" spans="11:11">
+      <c r="K571" s="4"/>
+    </row>
+    <row r="572" spans="11:11">
+      <c r="K572" s="4"/>
+    </row>
+    <row r="573" spans="11:11">
+      <c r="K573" s="4"/>
+    </row>
+    <row r="574" spans="11:11">
+      <c r="K574" s="4"/>
+    </row>
+    <row r="575" spans="11:11">
+      <c r="K575" s="4"/>
+    </row>
+    <row r="576" spans="11:11">
+      <c r="K576" s="4"/>
+    </row>
+    <row r="577" spans="11:11">
+      <c r="K577" s="4"/>
+    </row>
+    <row r="578" spans="11:11">
+      <c r="K578" s="4"/>
+    </row>
+    <row r="579" spans="11:11">
+      <c r="K579" s="4"/>
+    </row>
+    <row r="580" spans="11:11">
+      <c r="K580" s="4"/>
+    </row>
+    <row r="581" spans="11:11">
+      <c r="K581" s="4"/>
+    </row>
+    <row r="582" spans="11:11">
+      <c r="K582" s="4"/>
+    </row>
+    <row r="583" spans="11:11">
+      <c r="K583" s="4"/>
+    </row>
+    <row r="584" spans="11:11">
+      <c r="K584" s="4"/>
+    </row>
+    <row r="585" spans="11:11">
+      <c r="K585" s="4"/>
+    </row>
+    <row r="586" spans="11:11">
+      <c r="K586" s="4"/>
+    </row>
+    <row r="587" spans="11:11">
+      <c r="K587" s="4"/>
+    </row>
+    <row r="588" spans="11:11">
+      <c r="K588" s="4"/>
+    </row>
+    <row r="589" spans="11:11">
+      <c r="K589" s="4"/>
+    </row>
+    <row r="590" spans="11:11">
+      <c r="K590" s="4"/>
+    </row>
+    <row r="591" spans="11:11">
+      <c r="K591" s="4"/>
+    </row>
+    <row r="592" spans="11:11">
+      <c r="K592" s="4"/>
+    </row>
+    <row r="593" spans="11:11">
+      <c r="K593" s="4"/>
+    </row>
+    <row r="594" spans="11:11">
+      <c r="K594" s="4"/>
+    </row>
+    <row r="595" spans="11:11">
+      <c r="K595" s="4"/>
+    </row>
+    <row r="596" spans="11:11">
+      <c r="K596" s="4"/>
+    </row>
+    <row r="597" spans="11:11">
+      <c r="K597" s="4"/>
+    </row>
+    <row r="598" spans="11:11">
+      <c r="K598" s="4"/>
+    </row>
+    <row r="599" spans="11:11">
+      <c r="K599" s="4"/>
+    </row>
+    <row r="600" spans="11:11">
+      <c r="K600" s="4"/>
+    </row>
+    <row r="601" spans="11:11">
+      <c r="K601" s="4"/>
+    </row>
+    <row r="602" spans="11:11">
+      <c r="K602" s="4"/>
+    </row>
+    <row r="603" spans="11:11">
+      <c r="K603" s="4"/>
+    </row>
+    <row r="604" spans="11:11">
+      <c r="K604" s="4"/>
+    </row>
+    <row r="605" spans="11:11">
+      <c r="K605" s="4"/>
+    </row>
+    <row r="606" spans="11:11">
+      <c r="K606" s="4"/>
+    </row>
+    <row r="607" spans="11:11">
+      <c r="K607" s="4"/>
+    </row>
+    <row r="608" spans="11:11">
+      <c r="K608" s="4"/>
+    </row>
+    <row r="609" spans="11:11">
+      <c r="K609" s="4"/>
+    </row>
+    <row r="610" spans="11:11">
+      <c r="K610" s="4"/>
+    </row>
+    <row r="611" spans="11:11">
+      <c r="K611" s="4"/>
+    </row>
+    <row r="612" spans="11:11">
+      <c r="K612" s="4"/>
+    </row>
+    <row r="613" spans="11:11">
+      <c r="K613" s="4"/>
+    </row>
+    <row r="614" spans="11:11">
+      <c r="K614" s="4"/>
+    </row>
+    <row r="615" spans="11:11">
+      <c r="K615" s="4"/>
+    </row>
+    <row r="616" spans="11:11">
+      <c r="K616" s="4"/>
+    </row>
+    <row r="617" spans="11:11">
+      <c r="K617" s="4"/>
+    </row>
+    <row r="618" spans="11:11">
+      <c r="K618" s="4"/>
+    </row>
+    <row r="619" spans="11:11">
+      <c r="K619" s="4"/>
+    </row>
+    <row r="620" spans="11:11">
+      <c r="K620" s="4"/>
+    </row>
+    <row r="621" spans="11:11">
+      <c r="K621" s="4"/>
+    </row>
+    <row r="622" spans="11:11">
+      <c r="K622" s="4"/>
+    </row>
+    <row r="623" spans="11:11">
+      <c r="K623" s="4"/>
+    </row>
+    <row r="624" spans="11:11">
+      <c r="K624" s="4"/>
+    </row>
+    <row r="625" spans="11:11">
+      <c r="K625" s="4"/>
+    </row>
+    <row r="626" spans="11:11">
+      <c r="K626" s="4"/>
+    </row>
+    <row r="627" spans="11:11">
+      <c r="K627" s="4"/>
+    </row>
+    <row r="628" spans="11:11">
+      <c r="K628" s="4"/>
+    </row>
+    <row r="629" spans="11:11">
+      <c r="K629" s="4"/>
+    </row>
+    <row r="630" spans="11:11">
+      <c r="K630" s="4"/>
+    </row>
+    <row r="631" spans="11:11">
+      <c r="K631" s="4"/>
+    </row>
+    <row r="632" spans="11:11">
+      <c r="K632" s="4"/>
+    </row>
+    <row r="633" spans="11:11">
+      <c r="K633" s="4"/>
+    </row>
+    <row r="634" spans="11:11">
+      <c r="K634" s="4"/>
+    </row>
+    <row r="635" spans="11:11">
+      <c r="K635" s="4"/>
+    </row>
+    <row r="636" spans="11:11">
+      <c r="K636" s="4"/>
+    </row>
+    <row r="637" spans="11:11">
+      <c r="K637" s="4"/>
+    </row>
+    <row r="638" spans="11:11">
+      <c r="K638" s="4"/>
+    </row>
+    <row r="639" spans="11:11">
+      <c r="K639" s="4"/>
+    </row>
+    <row r="640" spans="11:11">
+      <c r="K640" s="4"/>
+    </row>
+    <row r="641" spans="11:11">
+      <c r="K641" s="4"/>
+    </row>
+    <row r="642" spans="11:11">
+      <c r="K642" s="4"/>
+    </row>
+    <row r="643" spans="11:11">
+      <c r="K643" s="4"/>
+    </row>
+    <row r="644" spans="11:11">
+      <c r="K644" s="4"/>
+    </row>
+    <row r="645" spans="11:11">
+      <c r="K645" s="4"/>
+    </row>
+    <row r="646" spans="11:11">
+      <c r="K646" s="4"/>
+    </row>
+    <row r="647" spans="11:11">
+      <c r="K647" s="4"/>
+    </row>
+    <row r="648" spans="11:11">
+      <c r="K648" s="4"/>
+    </row>
+    <row r="649" spans="11:11">
+      <c r="K649" s="4"/>
+    </row>
+    <row r="650" spans="11:11">
+      <c r="K650" s="4"/>
+    </row>
+    <row r="651" spans="11:11">
+      <c r="K651" s="4"/>
+    </row>
+    <row r="652" spans="11:11">
+      <c r="K652" s="4"/>
+    </row>
+    <row r="653" spans="11:11">
+      <c r="K653" s="4"/>
+    </row>
+    <row r="654" spans="11:11">
+      <c r="K654" s="4"/>
+    </row>
+    <row r="655" spans="11:11">
+      <c r="K655" s="4"/>
+    </row>
+    <row r="656" spans="11:11">
+      <c r="K656" s="4"/>
+    </row>
+    <row r="657" spans="11:11">
+      <c r="K657" s="4"/>
+    </row>
+    <row r="658" spans="11:11">
+      <c r="K658" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/単体・結合テスト指示書.xlsx
+++ b/単体・結合テスト指示書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="11_AD4D066CA252ABDACC10482C7197DD7C72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDEB67A-9BD0-4D5B-A082-7EF1533894C0}"/>
+  <xr:revisionPtr revIDLastSave="704" documentId="11_AD4D066CA252ABDACC10482C7197DD7C72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAED984B-923F-4955-AA21-3F1B14186B11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,316 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>若狭美帆</author>
+  </authors>
+  <commentList>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{58F25294-5AB8-406A-89E9-A1C6BCDDC7FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>名前（姓）以外の項目条件</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{63061100-E21B-4513-9402-06C635A1F066}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">名前（名）以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{2F405B4A-5868-4EB9-B87C-28A990EECE67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>カナ（姓）以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{FDDCED3D-B5F4-433E-9D11-26473B51BD7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>カナ（名）以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{DE600C67-7CAC-4E30-8E4A-837820DE8318}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>メールアドレス以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{DA9B7464-DE7A-4A11-B82D-172B7F382069}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>パスワード以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{104EDC19-9D0D-42DD-BF13-82E3A430E4A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>郵便番号以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{F2CD846F-59A4-4F33-9D23-3C400C3590A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>住所（市区町村）以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{88F38798-876F-488D-8736-01419F707F11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">住所（番地）以外の項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{9C1D186D-E189-4D73-BD8D-DD04B3B5D9C2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">項目条件
+名前（姓）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+名前（名）　　　：最大入力文字数は10文字、ひらがな、漢字のみ入力可
+カナ（姓）　　　：最大入力文字数は10文字、カタカナのみ入力可
+カナ（名）　　　：最大入力文字数は10文字、カタカナのみ入力可
+パスワード　　　：最大入力文字数は10文字、半角英数字のみ入力可
+メールアドレス　：最大入力文字数は100文字、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可
+郵便番号　　　　：最大入力文字数は７文字、半角数字のみ入力可
+都道府県　　　　：47個のうち1つ任意のものを選択
+住所（市区町村）：最大入力文字数は10文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+住所（番地）　　：最大入力文字数は100文字、ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="245">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -322,16 +630,6 @@
   </si>
   <si>
     <t>ナビゲーションバーの「その他」の横に「アカウント登録」がある</t>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
@@ -472,6 +770,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>住所（市区町村）の右に空欄の入力枠がある</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>初期値：性別の右の男にチェックが表示されている</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
@@ -1017,39 +1328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山田山田山田山田山田山</t>
-    <rPh sb="10" eb="11">
-      <t>ヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意のひらがな、漢字を11文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11文字目が消える</t>
-    <rPh sb="2" eb="5">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（名）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -1091,16 +1369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>太郎太郎太郎太郎太郎太</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-6</t>
   </si>
   <si>
@@ -1156,26 +1424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意のカタカナを11文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヤマダヤマダヤマダヤマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カナ（名）の入力欄に11文字以上入れようとすると11文字目が削除される</t>
     <rPh sb="3" eb="4">
       <t>ナ</t>
@@ -1195,22 +1443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意の半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）を101文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレスの入力欄に101文字以上入れようとすると101文字目が削除される</t>
     <rPh sb="8" eb="11">
       <t>ニュウリョクラン</t>
@@ -1243,58 +1475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意の半角英数字を11文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101文字目が消える</t>
-    <rPh sb="3" eb="6">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意の半角数字を8文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8文字目が消える</t>
-    <rPh sb="1" eb="4">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>住所（都道府県）のプルダウン内北海道～沖縄の４７都道府県の並び順に47個都道府県名が選択される</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
@@ -1348,34 +1528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選択欄に北海道～沖縄まで順番通りに47個表示される</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ホッカイドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オキナワ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号の入力欄に8文字以上入れようとすると8文字目が削除される</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -1448,38 +1600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を11文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を101文字入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント権限のプルダウン内「一般」と「管理者」の選択が表示される</t>
     <rPh sb="5" eb="7">
       <t>ケンゲン</t>
@@ -1502,60 +1622,1414 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選択欄に「一般」と「管理者」が表示される</t>
+    <t>2-21</t>
+  </si>
+  <si>
+    <t>2-22</t>
+  </si>
+  <si>
+    <t>2-23</t>
+  </si>
+  <si>
+    <t>2-24</t>
+  </si>
+  <si>
+    <t>2-25</t>
+  </si>
+  <si>
+    <t>2-26</t>
+  </si>
+  <si>
+    <t>2-27</t>
+  </si>
+  <si>
+    <t>2-28</t>
+  </si>
+  <si>
+    <t>2-29</t>
+  </si>
+  <si>
+    <t>2-30</t>
+  </si>
+  <si>
+    <t>2-31</t>
+  </si>
+  <si>
+    <t>D.I.Blogのホームページが表示されている</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番上のロゴの下のナビゲーションバー確認</t>
     <rPh sb="0" eb="3">
-      <t>センタクラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページから移行後のアカウント登録画面を確認</t>
+    <rPh sb="8" eb="11">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページからアカウント登録画面へ移行される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の右に空欄の入力枠が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右に空欄の入力枠が表示されている</t>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右に空欄の入力枠が表示されている</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右に空欄の入力枠が表示されている</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の右に「一般」が選択されたのプルダウンが表示されている</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>イッパン</t>
     </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右の入力枠に任意のひらがなのみ11文字以上入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右の入力枠に任意の漢字のみ11文字以上入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右の入力枠に任意のひらがなと漢字混合で11文字以上入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の入力枠に任意のひらがなを11文字以上入力する</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の入力枠に任意の漢字を11文字以上入力する</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の入力枠に任意のひらがなと漢字混合で11文字以上入力する</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の入力枠に任意のカタカナを11文字入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右の入力枠に任意の半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）を101文字入力する</t>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右の入力枠に任意の半角英数字を11文字入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の右の入力枠に任意の半角数字を8文字入力する</t>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意のひらがなを11文字以上入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意の漢字を11文字入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意の数字を11文字入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意のカタカナを11文字入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意の記号（ハイフンとスペース）を11文字入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を11文字入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右の入力枠に任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を101文字入力する</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の欄の下に「名前（姓）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の欄の下に「名前（名）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の欄の下に「カナ（姓）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="14" eb="15">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄の下に「メールアドレスが未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄の下に「パスワードが未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の右のプルダウンで何も選択せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="17" eb="18">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の下に「住所（都道府県）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の欄の下に「住所（市区町村）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄の下に「住所（番地）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右に空欄の入力枠がある</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-32</t>
+  </si>
+  <si>
+    <t>2-33</t>
+  </si>
+  <si>
+    <t>2-34</t>
+  </si>
+  <si>
+    <t>2-35</t>
+  </si>
+  <si>
+    <t>2-36</t>
+  </si>
+  <si>
+    <t>2-37</t>
+  </si>
+  <si>
+    <t>2-38</t>
+  </si>
+  <si>
+    <t>2-39</t>
+  </si>
+  <si>
+    <t>2-40</t>
+  </si>
+  <si>
+    <t>2-41</t>
+  </si>
+  <si>
+    <t>2-42</t>
+  </si>
+  <si>
+    <t>2-43</t>
+  </si>
+  <si>
+    <t>2-44</t>
+  </si>
+  <si>
+    <t>2-45</t>
+  </si>
+  <si>
+    <t>2-46</t>
+  </si>
+  <si>
+    <t>2-47</t>
+  </si>
+  <si>
+    <t>2-48</t>
+  </si>
+  <si>
+    <t>2-49</t>
+  </si>
+  <si>
+    <t>2-50</t>
+  </si>
+  <si>
+    <t>PC: Windows 11, Chrome</t>
+  </si>
+  <si>
+    <t>名前（姓）の右に空欄の入力枠が表示されている。名前（姓）以外の項目は条件内の入力されている。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ジョウケンナイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右に空欄の入力枠が表示されている。名前（名）以外の項目は条件内の入力されている。</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右に空欄の入力枠が表示されている。カナ（姓）以外の項目は条件内の入力されている。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の右に空欄の入力枠が表示されている。カナ（名）以外の項目は条件内の入力されている。</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右に空欄の入力枠が表示されている。メールアドレス以外の項目は条件内の入力されている。</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右に空欄の入力枠が表示されている。パスワード以外の項目は条件内の入力されている。</t>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の右に空欄の入力枠が表示されている。郵便番号以外の項目は条件内の入力されている。</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウラン</t>
+    </rPh>
     <rPh sb="10" eb="13">
-      <t>カンリシャ</t>
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右に空欄の入力枠がある。住所（市区町村）以外の項目は条件内の入力されている。</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右に空欄の入力枠がある。住所（番地）以外の項目は条件内の入力されている。</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニュウリョクワク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右の入力枠に任意のひらがな、漢字以外の文字を10文字以内で入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右の入力枠に任意のひらがな、漢字以外の文字を10文字以内で入力する</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右の入力枠に任意のカタカナ以外の文字を10文字以内で入力する</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の右の入力枠に任意のカタカナ以外の文字を10文字以内で入力する</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右の入力枠に任意の半角英数字以外の文字を10文字以内で入力する</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-21</t>
-  </si>
-  <si>
-    <t>2-22</t>
-  </si>
-  <si>
-    <t>2-23</t>
-  </si>
-  <si>
-    <t>2-24</t>
-  </si>
-  <si>
-    <t>2-25</t>
-  </si>
-  <si>
-    <t>2-26</t>
-  </si>
-  <si>
-    <t>2-27</t>
-  </si>
-  <si>
-    <t>2-28</t>
-  </si>
-  <si>
-    <t>2-29</t>
-  </si>
-  <si>
-    <t>2-30</t>
-  </si>
-  <si>
-    <t>2-31</t>
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右の入力枠に任意の半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）以外を100文字以内で入力する</t>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の右の入力枠に任意の半角数字以外の文字を7文字以内で入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右の入力枠に任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の文字を100文字以内で入力する</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右の入力枠に任意のひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）以外の文字を10文字以内で入力する</t>
+    <rPh sb="15" eb="17">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の欄の下に「名前（姓）はひらがな、漢字のみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の欄の下に「名前（名）はひらがな、漢字のみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の欄の下に「カナ（姓）はカタカナのみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の右の入力枠に何も入力せず画面下の「確認する」ボタン押す</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄の下に「カナ（名）が未入力です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄の下に「カナ（姓）はカタカナのみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄の下に「メールアドレスは半角英数字、@、-のみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの欄の下に「パスワードは半角英数字のみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の欄の下に「郵便番号は半角数字のみ入力してください。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の欄の下に「住所（市区町村）はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の欄の下に「住所（番地）はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可能です。」とエラーメッセージが赤字で表示される</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-51</t>
+  </si>
+  <si>
+    <t>2-52</t>
+  </si>
+  <si>
+    <t>2-53</t>
+  </si>
+  <si>
+    <t>2-54</t>
+  </si>
+  <si>
+    <t>2-55</t>
+  </si>
+  <si>
+    <t>2-56</t>
+  </si>
+  <si>
+    <t>2-57</t>
+  </si>
+  <si>
+    <t>2-58</t>
+  </si>
+  <si>
+    <t>2-59</t>
+  </si>
+  <si>
+    <t>2-60</t>
+  </si>
+  <si>
+    <t>全ての項目が条件内で入力されている</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,6 +3052,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2014,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2072,13 +3561,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -2130,11 +3619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2169,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>3</v>
@@ -2198,10 +3687,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>40</v>
@@ -2224,45 +3713,51 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>11</v>
@@ -2276,13 +3771,13 @@
         <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>40</v>
@@ -2300,391 +3795,436 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75">
+    <row r="6" spans="1:11" ht="112.5">
       <c r="A6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="37.5">
       <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>40</v>
+      <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="37.5">
       <c r="A8" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>40</v>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="37.5">
       <c r="A9" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>40</v>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="37.5">
       <c r="A10" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>40</v>
+      <c r="C10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="37.5">
       <c r="A11" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>40</v>
+      <c r="C11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="37.5">
       <c r="A12" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>40</v>
+      <c r="C12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.5">
       <c r="A13" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="37.5">
       <c r="A14" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>40</v>
+      <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="37.5">
       <c r="A15" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>40</v>
+      <c r="C15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.5">
       <c r="A16" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>40</v>
+      <c r="C16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="37.5">
       <c r="A17" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>40</v>
+      <c r="C17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="37.5">
       <c r="A18" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>40</v>
+      <c r="C18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="37.5">
       <c r="A19" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>40</v>
+      <c r="C19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="37.5">
       <c r="A20" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>40</v>
+      <c r="C20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="37.5">
       <c r="A21" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>40</v>
+      <c r="C21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="37.5">
       <c r="A22" s="21" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>97</v>
+      <c r="C22" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -2702,250 +4242,858 @@
     </row>
     <row r="23" spans="1:10" ht="37.5">
       <c r="A23" s="21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
+      <c r="C23" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45904</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="J23" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="37.5">
       <c r="A24" s="21" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
+      <c r="C24" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>122</v>
+        <v>153</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5">
+        <v>45904</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="J24" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="37.5">
       <c r="A25" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>123</v>
+      <c r="C25" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>100</v>
+        <v>154</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="37.5">
       <c r="A26" s="21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>125</v>
+      <c r="C26" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="37.5">
       <c r="A27" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>126</v>
+      <c r="C27" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>100</v>
+        <v>156</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="37.5">
       <c r="A28" s="21" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>134</v>
+      <c r="C28" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="37.5">
       <c r="A29" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>131</v>
+      <c r="C29" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>133</v>
+        <v>157</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="37.5">
       <c r="A30" s="21" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>135</v>
+      <c r="C30" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>100</v>
+        <v>158</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="37.5">
       <c r="A31" s="21" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>136</v>
+      <c r="C31" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="37.5">
       <c r="A32" s="21" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>139</v>
+      <c r="C32" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>160</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="56.25">
+      <c r="A33" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="37.5">
+      <c r="A34" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="37.5">
+      <c r="A35" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="37.5">
+      <c r="A36" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="37.5">
+      <c r="A37" s="21" t="s">
+        <v>189</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5">
+      <c r="A38" s="21" t="s">
+        <v>190</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="37.5">
+      <c r="A39" s="21" t="s">
+        <v>191</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="37.5">
+      <c r="A40" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="C40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="37.5">
+      <c r="A41" s="21" t="s">
+        <v>193</v>
+      </c>
       <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="C41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="56.25">
+      <c r="A42" s="21" t="s">
+        <v>194</v>
+      </c>
       <c r="B42" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="C42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="56.25">
+      <c r="A43" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="56.25">
+      <c r="A44" s="21" t="s">
+        <v>196</v>
+      </c>
       <c r="B44" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="56.25">
+      <c r="A45" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="56.25">
+      <c r="A46" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="56.25">
+      <c r="A47" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="56.25">
+      <c r="A48" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="56.25">
+      <c r="A49" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="56.25">
+      <c r="A50" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="56.25">
+      <c r="A51" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="56.25">
+      <c r="A52" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="56.25">
+      <c r="A53" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="56.25">
+      <c r="A54" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="56.25">
+      <c r="A55" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="75">
+      <c r="A56" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="56.25">
+      <c r="A57" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="56.25">
+      <c r="A58" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="93.75">
+      <c r="A59" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="93.75">
+      <c r="A60" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2953,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2989,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -3044,7 +5192,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>23</v>
@@ -3053,7 +5201,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>40</v>
@@ -3068,7 +5216,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
@@ -3077,7 +5225,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>40</v>
@@ -3092,16 +5240,16 @@
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>40</v>
@@ -3117,7 +5265,7 @@
     </row>
     <row r="6" spans="1:11" ht="75">
       <c r="A6" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -3126,7 +5274,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>40</v>
@@ -3141,16 +5289,16 @@
     </row>
     <row r="7" spans="1:11" ht="37.5">
       <c r="A7" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>40</v>
@@ -3164,16 +5312,16 @@
     </row>
     <row r="8" spans="1:11" ht="37.5">
       <c r="A8" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>40</v>
@@ -3187,16 +5335,16 @@
     </row>
     <row r="9" spans="1:11" ht="37.5">
       <c r="A9" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>40</v>
@@ -3210,16 +5358,16 @@
     </row>
     <row r="10" spans="1:11" ht="37.5">
       <c r="A10" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>40</v>
@@ -3233,16 +5381,16 @@
     </row>
     <row r="11" spans="1:11" ht="37.5">
       <c r="A11" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>40</v>
@@ -3256,16 +5404,16 @@
     </row>
     <row r="12" spans="1:11" ht="37.5">
       <c r="A12" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>40</v>
@@ -3279,16 +5427,16 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>40</v>
@@ -3302,16 +5450,16 @@
     </row>
     <row r="14" spans="1:11" ht="37.5">
       <c r="A14" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>40</v>
@@ -3325,16 +5473,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>40</v>
@@ -3348,16 +5496,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>40</v>
@@ -3371,16 +5519,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>40</v>
@@ -3394,16 +5542,16 @@
     </row>
     <row r="18" spans="1:9" ht="37.5">
       <c r="A18" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>40</v>
@@ -3476,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -3529,7 +5677,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>28</v>
@@ -3538,7 +5686,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>40</v>
@@ -3557,7 +5705,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -3566,7 +5714,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>40</v>
@@ -3585,16 +5733,16 @@
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>40</v>
@@ -3613,10 +5761,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>

--- a/単体・結合テスト指示書.xlsx
+++ b/単体・結合テスト指示書.xlsx
@@ -5,24 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/TEST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miho1\OneDrive\デスクトップ\DIスクール\workspace\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="704" documentId="11_AD4D066CA252ABDACC10482C7197DD7C72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAED984B-923F-4955-AA21-3F1B14186B11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4FDF4-A407-4B4F-8824-8543B22942DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.ホーム画面" sheetId="2" r:id="rId1"/>
     <sheet name="2.登録画面" sheetId="1" r:id="rId2"/>
     <sheet name="3.登録確認画面" sheetId="4" r:id="rId3"/>
     <sheet name="4.登録完了画面" sheetId="6" r:id="rId4"/>
+    <sheet name="5.データベース" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -337,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="323">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -382,10 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC: Windows 11, Chrome</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録画面へ移行</t>
     <rPh sb="5" eb="9">
       <t>トウロクガメン</t>
@@ -396,26 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ナビゲーションバーの「その他」の横の「アカウント登録」をクリックする</t>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>若狭</t>
-    <rPh sb="0" eb="2">
-      <t>ワカサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録画面へ移動する</t>
     <rPh sb="5" eb="9">
       <t>トウロクガメン</t>
@@ -426,10 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -448,17 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要修正</t>
-    <rPh sb="0" eb="3">
-      <t>ヨウシュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account/registAction.actionとなっている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,10 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>regist_confirmAction.actionとなっている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,13 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TOPページへ移動する</t>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録画面表示</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -632,10 +591,6 @@
     <t>ナビゲーションバーの「その他」の横に「アカウント登録」がある</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面中央左側に名前（姓）、名前（名）、カナ（姓）、カナ（名）、メールアドレス、パスワード、性別、郵便番号、住所（都道府県）、住所（市区町村）、住所（番地）、アカウント権限の順番で縦に記載されている</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -873,13 +828,6 @@
     <t>2-20</t>
   </si>
   <si>
-    <t>目視</t>
-    <rPh sb="0" eb="2">
-      <t>モクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -918,16 +866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録内容確認欄</t>
-    <rPh sb="0" eb="6">
-      <t>トウロクナイヨウカクニン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（姓）の右にアカウント登録画面で入力した名前（姓）が表示されている</t>
     <rPh sb="3" eb="4">
       <t>セイ</t>
@@ -1132,19 +1070,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住所（市区町村）の右に空欄の入力枠が表示されている</t>
-    <rPh sb="9" eb="10">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ニュウリョクワク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期値：住所（番地）の右に空欄の入力枠が表示されている</t>
     <rPh sb="7" eb="9">
       <t>バンチ</t>
@@ -1675,20 +1600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TOPページから移行後のアカウント登録画面を確認</t>
-    <rPh sb="8" eb="11">
-      <t>イコウゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOPページからアカウント登録画面へ移行される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号の右に空欄の入力枠が表示されている</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
@@ -2467,9 +2378,6 @@
     <t>2-50</t>
   </si>
   <si>
-    <t>PC: Windows 11, Chrome</t>
-  </si>
-  <si>
     <t>名前（姓）の右に空欄の入力枠が表示されている。名前（姓）以外の項目は条件内の入力されている。</t>
     <rPh sb="3" eb="4">
       <t>セイ</t>
@@ -3021,6 +2929,1173 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から確認画面へ移行</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面に移動する</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行後のアカウント登録画面を確認</t>
+    <rPh sb="0" eb="3">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行後のアカウント登録確認画面を確認</t>
+    <rPh sb="0" eb="3">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント登録確認画面へ移行されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページからアカウント登録画面へ移行されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の右に登録画面で選択した都道府県名表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右に登録画面で入力した住所（市区町村）が表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の登録画面で入力した住所（番地）が表示されている</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の右に登録画面で選択されたアカウント権限が表示されている</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の下の左側に「前に戻る」ボタンがある</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の下の右側に「登録する」ボタンがある</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録完了画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての項目がアカウント登録画面で入力した内容が表示されている</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の下の左側にある「前に戻る」ボタンをクリックする</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の下の右側にある「登録する」ボタンをクリックする</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面へ移動する</t>
+    <rPh sb="5" eb="11">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLサーバとの接続停止してからアカウント権限の下の右側にある「登録する」ボタンをクリックする</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」と赤字でナビゲーションバーの下に表示される</t>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>3-19</t>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>TOPページに移動する</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録完了画面に移行されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行後のアカウント登録完了画面を確認</t>
+    <rPh sb="0" eb="3">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行後のアカウント登録完了画面を確認</t>
+    <rPh sb="0" eb="3">
+      <t>イコウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面へ移行されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面へ移行</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の右にアカウント登録確認画面で確認したものと同じ名前（姓）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の右にアカウント登録確認画面で確認した同じ名前（名）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の右にアカウント登録確認画面で確認したものと同じカナ（姓）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの右にアカウント登録確認画面で確認したものと同じ名前（姓）が表示されている</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の右にアカウント登録確認画面で確認したものと同じカナ（名）が表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの右にアカウント登録確認画面で確認したものと同じパスワードが表示されている</t>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別の右にアカウント登録確認画面で確認したものと同じ性別が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の右にアカウント登録確認画面で確認したものと同じ郵便番号が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）の右にアカウント登録確認画面で確認したものと同じ住所（都道府県）が表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）の右にアカウント登録確認画面で確認したものと同じ住所（市区町村）が表示されている</t>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）の右に確認したものと同じ住所（番地）が表示されている</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の右に確認したものと同じアカウント権限が表示されている</t>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-61</t>
+  </si>
+  <si>
+    <t>2-62</t>
+  </si>
+  <si>
+    <t>2-63</t>
+  </si>
+  <si>
+    <t>2-64</t>
+  </si>
+  <si>
+    <t>2-65</t>
+  </si>
+  <si>
+    <t>2-66</t>
+  </si>
+  <si>
+    <t>2-67</t>
+  </si>
+  <si>
+    <t>2-68</t>
+  </si>
+  <si>
+    <t>2-69</t>
+  </si>
+  <si>
+    <t>2-70</t>
+  </si>
+  <si>
+    <t>2-71</t>
+  </si>
+  <si>
+    <t>2-72</t>
+  </si>
+  <si>
+    <t>データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースにアクセスし、「account_data 」を表示している</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの「account_data 」を確認</t>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ID]欄に自動裁判された数字が入っている</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジドウサイバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力したメールアドレスが「 mail 」欄に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力したカナ（名）が「  last_name_kana 」欄に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力したカナ（姓）が「family_name_kana 」欄に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した名前（名）が「 last_name 」欄に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した名前（姓）が「 family_name 」欄に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>ID、family_name、last_name、family_name_kana、last_name_kana、mail、password、gender、postal_code、prefecture、address_1、address_2、authority、delete_flag、registered_time、update_timeが順に横に表示されている</t>
+    <rPh sb="171" eb="172">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力したパスワードがハッシュ化され「 password」に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した性別が「 gender」に数字で0もしくは1が表示されている※0＝男、1＝女）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した郵便番号が「 postal_code」に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した住所（都道府県）が「prefecture 」に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した住所（市区町村）が「 address_1」に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力した住所（番地）が「 address_2 」に表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で入力したアカウント権限が「 authority」に数字で0もしくは1が表示されている。※0＝一般、1＝管理者</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時が「 registered_time」に表示されている</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時が「 update_time」に表示されている</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>5-12</t>
+  </si>
+  <si>
+    <t>5-13</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>5-16</t>
+  </si>
+  <si>
+    <t>5-17</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーの「その他」の横の「アカウント登録」ボタンをクリックする</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3132,7 +4207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3183,13 +4258,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3501,27 +4570,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0129-4B5A-429F-8AFC-BDF5DEDBFD87}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K15" sqref="K15:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="24.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="18">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
@@ -3534,82 +4603,189 @@
       <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="37.5">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:11" ht="37.5">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5">
-        <v>45903</v>
-      </c>
-      <c r="H2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
-        <v>45903</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="I4" s="4"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="I6" s="4"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="I8" s="4"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="I13" s="4"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14" s="4"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3620,29 +4796,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="4"/>
     <col min="9" max="9" width="24.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" ht="18">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="18">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -3658,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>3</v>
@@ -3672,1421 +4848,1259 @@
       <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
-        <v>17</v>
+      <c r="A2" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="37.5">
+      <c r="A4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="112.5">
+      <c r="A6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5">
+      <c r="A7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5">
+      <c r="A8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="37.5">
+      <c r="A9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5">
+      <c r="A10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5">
+      <c r="A11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5">
+      <c r="A12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5">
+      <c r="A13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="37.5">
+      <c r="A14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="37.5">
+      <c r="A15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="37.5">
+      <c r="A16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="37.5">
+      <c r="A17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="37.5">
+      <c r="A18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5">
-        <v>45903</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="37.5">
+      <c r="A19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="37.5">
+      <c r="A20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="37.5">
+      <c r="A21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="37.5">
+      <c r="A22" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="37.5">
+      <c r="A23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="37.5">
+      <c r="A24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="37.5">
+      <c r="A25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="37.5">
+      <c r="A26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="37.5">
-      <c r="A4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="37.5">
-      <c r="A5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5">
-        <v>45903</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="112.5">
-      <c r="A6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="37.5">
+      <c r="A27" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="37.5">
+      <c r="A28" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="37.5">
+      <c r="A29" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="37.5">
+      <c r="A30" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="37.5">
+      <c r="A31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="37.5">
+      <c r="A32" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="56.25">
+      <c r="A33" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="37.5">
+      <c r="A34" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="37.5">
-      <c r="A7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="37.5">
-      <c r="A8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="37.5">
-      <c r="A9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="37.5">
-      <c r="A10" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="37.5">
-      <c r="A11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="37.5">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="37.5">
-      <c r="A13" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="37.5">
-      <c r="A14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="37.5">
-      <c r="A15" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="37.5">
-      <c r="A16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="37.5">
-      <c r="A17" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="37.5">
-      <c r="A18" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="37.5">
-      <c r="A19" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="37.5">
-      <c r="A20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="37.5">
-      <c r="A21" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="37.5">
-      <c r="A22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D34" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="37.5">
+      <c r="A35" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="E35" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="37.5">
+      <c r="A36" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="37.5">
+      <c r="A37" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="37.5">
+      <c r="A38" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5">
-        <v>45904</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="37.5">
-      <c r="A23" s="21" t="s">
+      <c r="E38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="37.5">
+      <c r="A39" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="37.5">
+      <c r="A40" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="37.5">
+      <c r="A41" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="56.25">
+      <c r="A42" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="56.25">
+      <c r="A43" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="56.25">
+      <c r="A44" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="56.25">
+      <c r="A45" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="56.25">
+      <c r="A46" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="56.25">
+      <c r="A47" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="56.25">
+      <c r="A48" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="5">
-        <v>45904</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="37.5">
-      <c r="A24" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="5">
-        <v>45904</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="37.5">
-      <c r="A25" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="37.5">
-      <c r="A26" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="37.5">
-      <c r="A27" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="37.5">
-      <c r="A28" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="37.5">
-      <c r="A29" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="D48" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="56.25">
+      <c r="A49" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="56.25">
+      <c r="A50" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="56.25">
+      <c r="A51" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="56.25">
+      <c r="A52" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="56.25">
+      <c r="A53" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="56.25">
+      <c r="A54" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="56.25">
+      <c r="A55" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="75">
+      <c r="A56" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="37.5">
-      <c r="A30" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="37.5">
-      <c r="A31" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="37.5">
-      <c r="A32" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="56.25">
-      <c r="A33" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="37.5">
-      <c r="A34" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="37.5">
-      <c r="A35" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="37.5">
-      <c r="A36" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="37.5">
-      <c r="A37" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="37.5">
-      <c r="A38" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="37.5">
-      <c r="A39" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="37.5">
-      <c r="A40" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="37.5">
-      <c r="A41" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="56.25">
-      <c r="A42" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="56.25">
-      <c r="A43" s="21" t="s">
+      <c r="E56" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="56.25">
+      <c r="A57" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="56.25">
-      <c r="A44" s="21" t="s">
+      <c r="D57" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="56.25">
+      <c r="A58" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="56.25">
-      <c r="A45" s="21" t="s">
+      <c r="D58" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="93.75">
+      <c r="A59" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="93.75">
+      <c r="A60" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="56.25">
-      <c r="A46" s="21" t="s">
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="56.25">
-      <c r="A47" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="56.25">
-      <c r="A48" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="56.25">
-      <c r="A49" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="56.25">
-      <c r="A50" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="56.25">
-      <c r="A51" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="56.25">
-      <c r="A52" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="56.25">
-      <c r="A53" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="56.25">
-      <c r="A54" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="56.25">
-      <c r="A55" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="37.5">
+      <c r="A61" s="19" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="75">
-      <c r="A56" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="56.25">
-      <c r="A57" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="56.25">
-      <c r="A58" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="93.75">
-      <c r="A59" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="93.75">
-      <c r="A60" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="3" t="s">
+    <row r="62" spans="1:5" ht="56.25">
+      <c r="A62" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>244</v>
+      <c r="E62" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="56.25">
+      <c r="A63" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="56.25">
+      <c r="A64" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="56.25">
+      <c r="A65" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="56.25">
+      <c r="A66" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="56.25">
+      <c r="A67" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="37.5">
+      <c r="A68" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="56.25">
+      <c r="A69" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="56.25">
+      <c r="A70" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="56.25">
+      <c r="A71" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="37.5">
+      <c r="A72" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="37.5">
+      <c r="A73" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5099,17 +6113,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70830121-0F86-4ED5-84E5-C695C0022A94}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="48.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="48.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="38" style="4" customWidth="1"/>
@@ -5137,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -5156,427 +6170,418 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
-        <v>22</v>
+      <c r="A2" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5">
-        <v>45903</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.5">
+      <c r="A3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="37.5">
+      <c r="A4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="75">
+      <c r="A6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5">
+      <c r="A7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5">
+      <c r="A8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="37.5">
+      <c r="A9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5">
+      <c r="A10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5">
+      <c r="A11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5">
+      <c r="A12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5">
+      <c r="A13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="37.5">
-      <c r="A5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="75">
-      <c r="A6" s="21" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="37.5">
+      <c r="A14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="37.5">
-      <c r="A7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="37.5">
-      <c r="A8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="37.5">
-      <c r="A9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="37.5">
-      <c r="A10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="37.5">
-      <c r="A11" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="37.5">
-      <c r="A12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="37.5">
-      <c r="A14" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
-        <v>113</v>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="37.5">
+      <c r="A15" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="37.5">
+      <c r="A16" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="21" t="s">
-        <v>115</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="37.5">
+      <c r="A17" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="37.5">
-      <c r="A18" s="21" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="37.5">
+      <c r="A18" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="I21" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="37.5">
+      <c r="A21" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="56.25">
+      <c r="A22" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="37.5">
+      <c r="A23" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5590,12 +6595,12 @@
   <dimension ref="A1:K658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="56.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.25" style="3" customWidth="1"/>
@@ -5624,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -5643,148 +6648,114 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="23" t="s">
-        <v>27</v>
+      <c r="A2" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="24">
-        <v>45903</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="23" t="s">
-        <v>100</v>
+    <row r="3" spans="1:11" ht="37.5">
+      <c r="A3" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="23" t="s">
-        <v>101</v>
+    <row r="4" spans="1:11" ht="37.5">
+      <c r="A4" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="37.5">
-      <c r="A5" s="23" t="s">
-        <v>102</v>
+      <c r="A5" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="8"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
-        <v>103</v>
+      <c r="A6" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="24">
-        <v>45903</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="8"/>
       <c r="K6" s="4"/>
     </row>
@@ -7743,6 +8714,2329 @@
     </row>
     <row r="658" spans="11:11">
       <c r="K658" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75208E-756F-417E-A771-63BEC3039981}">
+  <dimension ref="A1:K659"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5">
+      <c r="A2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="131.25">
+      <c r="A3" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="37.5">
+      <c r="A4" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="37.5">
+      <c r="A6" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="56.25">
+      <c r="A7" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="56.25">
+      <c r="A8" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="37.5">
+      <c r="A9" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="56.25">
+      <c r="A10" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="56.25">
+      <c r="A11" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5">
+      <c r="A12" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5">
+      <c r="A13" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="37.5">
+      <c r="A14" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="37.5">
+      <c r="A15" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="56.25">
+      <c r="A16" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="37.5">
+      <c r="A17" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="37.5">
+      <c r="A18" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="11:11">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="11:11">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="11:11">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="11:11">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" s="4"/>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="11:11">
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" spans="11:11">
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="11:11">
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="11:11">
+      <c r="K164" s="4"/>
+    </row>
+    <row r="165" spans="11:11">
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="11:11">
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" spans="11:11">
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="11:11">
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" spans="11:11">
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="11:11">
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" spans="11:11">
+      <c r="K171" s="4"/>
+    </row>
+    <row r="172" spans="11:11">
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="11:11">
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" spans="11:11">
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" spans="11:11">
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="11:11">
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" spans="11:11">
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="11:11">
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="11:11">
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" spans="11:11">
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" spans="11:11">
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="11:11">
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="11:11">
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" spans="11:11">
+      <c r="K184" s="4"/>
+    </row>
+    <row r="185" spans="11:11">
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" spans="11:11">
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" spans="11:11">
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" spans="11:11">
+      <c r="K188" s="4"/>
+    </row>
+    <row r="189" spans="11:11">
+      <c r="K189" s="4"/>
+    </row>
+    <row r="190" spans="11:11">
+      <c r="K190" s="4"/>
+    </row>
+    <row r="191" spans="11:11">
+      <c r="K191" s="4"/>
+    </row>
+    <row r="192" spans="11:11">
+      <c r="K192" s="4"/>
+    </row>
+    <row r="193" spans="11:11">
+      <c r="K193" s="4"/>
+    </row>
+    <row r="194" spans="11:11">
+      <c r="K194" s="4"/>
+    </row>
+    <row r="195" spans="11:11">
+      <c r="K195" s="4"/>
+    </row>
+    <row r="196" spans="11:11">
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="11:11">
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="11:11">
+      <c r="K198" s="4"/>
+    </row>
+    <row r="199" spans="11:11">
+      <c r="K199" s="4"/>
+    </row>
+    <row r="200" spans="11:11">
+      <c r="K200" s="4"/>
+    </row>
+    <row r="201" spans="11:11">
+      <c r="K201" s="4"/>
+    </row>
+    <row r="202" spans="11:11">
+      <c r="K202" s="4"/>
+    </row>
+    <row r="203" spans="11:11">
+      <c r="K203" s="4"/>
+    </row>
+    <row r="204" spans="11:11">
+      <c r="K204" s="4"/>
+    </row>
+    <row r="205" spans="11:11">
+      <c r="K205" s="4"/>
+    </row>
+    <row r="206" spans="11:11">
+      <c r="K206" s="4"/>
+    </row>
+    <row r="207" spans="11:11">
+      <c r="K207" s="4"/>
+    </row>
+    <row r="208" spans="11:11">
+      <c r="K208" s="4"/>
+    </row>
+    <row r="209" spans="11:11">
+      <c r="K209" s="4"/>
+    </row>
+    <row r="210" spans="11:11">
+      <c r="K210" s="4"/>
+    </row>
+    <row r="211" spans="11:11">
+      <c r="K211" s="4"/>
+    </row>
+    <row r="212" spans="11:11">
+      <c r="K212" s="4"/>
+    </row>
+    <row r="213" spans="11:11">
+      <c r="K213" s="4"/>
+    </row>
+    <row r="214" spans="11:11">
+      <c r="K214" s="4"/>
+    </row>
+    <row r="215" spans="11:11">
+      <c r="K215" s="4"/>
+    </row>
+    <row r="216" spans="11:11">
+      <c r="K216" s="4"/>
+    </row>
+    <row r="217" spans="11:11">
+      <c r="K217" s="4"/>
+    </row>
+    <row r="218" spans="11:11">
+      <c r="K218" s="4"/>
+    </row>
+    <row r="219" spans="11:11">
+      <c r="K219" s="4"/>
+    </row>
+    <row r="220" spans="11:11">
+      <c r="K220" s="4"/>
+    </row>
+    <row r="221" spans="11:11">
+      <c r="K221" s="4"/>
+    </row>
+    <row r="222" spans="11:11">
+      <c r="K222" s="4"/>
+    </row>
+    <row r="223" spans="11:11">
+      <c r="K223" s="4"/>
+    </row>
+    <row r="224" spans="11:11">
+      <c r="K224" s="4"/>
+    </row>
+    <row r="225" spans="11:11">
+      <c r="K225" s="4"/>
+    </row>
+    <row r="226" spans="11:11">
+      <c r="K226" s="4"/>
+    </row>
+    <row r="227" spans="11:11">
+      <c r="K227" s="4"/>
+    </row>
+    <row r="228" spans="11:11">
+      <c r="K228" s="4"/>
+    </row>
+    <row r="229" spans="11:11">
+      <c r="K229" s="4"/>
+    </row>
+    <row r="230" spans="11:11">
+      <c r="K230" s="4"/>
+    </row>
+    <row r="231" spans="11:11">
+      <c r="K231" s="4"/>
+    </row>
+    <row r="232" spans="11:11">
+      <c r="K232" s="4"/>
+    </row>
+    <row r="233" spans="11:11">
+      <c r="K233" s="4"/>
+    </row>
+    <row r="234" spans="11:11">
+      <c r="K234" s="4"/>
+    </row>
+    <row r="235" spans="11:11">
+      <c r="K235" s="4"/>
+    </row>
+    <row r="236" spans="11:11">
+      <c r="K236" s="4"/>
+    </row>
+    <row r="237" spans="11:11">
+      <c r="K237" s="4"/>
+    </row>
+    <row r="238" spans="11:11">
+      <c r="K238" s="4"/>
+    </row>
+    <row r="239" spans="11:11">
+      <c r="K239" s="4"/>
+    </row>
+    <row r="240" spans="11:11">
+      <c r="K240" s="4"/>
+    </row>
+    <row r="241" spans="11:11">
+      <c r="K241" s="4"/>
+    </row>
+    <row r="242" spans="11:11">
+      <c r="K242" s="4"/>
+    </row>
+    <row r="243" spans="11:11">
+      <c r="K243" s="4"/>
+    </row>
+    <row r="244" spans="11:11">
+      <c r="K244" s="4"/>
+    </row>
+    <row r="245" spans="11:11">
+      <c r="K245" s="4"/>
+    </row>
+    <row r="246" spans="11:11">
+      <c r="K246" s="4"/>
+    </row>
+    <row r="247" spans="11:11">
+      <c r="K247" s="4"/>
+    </row>
+    <row r="248" spans="11:11">
+      <c r="K248" s="4"/>
+    </row>
+    <row r="249" spans="11:11">
+      <c r="K249" s="4"/>
+    </row>
+    <row r="250" spans="11:11">
+      <c r="K250" s="4"/>
+    </row>
+    <row r="251" spans="11:11">
+      <c r="K251" s="4"/>
+    </row>
+    <row r="252" spans="11:11">
+      <c r="K252" s="4"/>
+    </row>
+    <row r="253" spans="11:11">
+      <c r="K253" s="4"/>
+    </row>
+    <row r="254" spans="11:11">
+      <c r="K254" s="4"/>
+    </row>
+    <row r="255" spans="11:11">
+      <c r="K255" s="4"/>
+    </row>
+    <row r="256" spans="11:11">
+      <c r="K256" s="4"/>
+    </row>
+    <row r="257" spans="11:11">
+      <c r="K257" s="4"/>
+    </row>
+    <row r="258" spans="11:11">
+      <c r="K258" s="4"/>
+    </row>
+    <row r="259" spans="11:11">
+      <c r="K259" s="4"/>
+    </row>
+    <row r="260" spans="11:11">
+      <c r="K260" s="4"/>
+    </row>
+    <row r="261" spans="11:11">
+      <c r="K261" s="4"/>
+    </row>
+    <row r="262" spans="11:11">
+      <c r="K262" s="4"/>
+    </row>
+    <row r="263" spans="11:11">
+      <c r="K263" s="4"/>
+    </row>
+    <row r="264" spans="11:11">
+      <c r="K264" s="4"/>
+    </row>
+    <row r="265" spans="11:11">
+      <c r="K265" s="4"/>
+    </row>
+    <row r="266" spans="11:11">
+      <c r="K266" s="4"/>
+    </row>
+    <row r="267" spans="11:11">
+      <c r="K267" s="4"/>
+    </row>
+    <row r="268" spans="11:11">
+      <c r="K268" s="4"/>
+    </row>
+    <row r="269" spans="11:11">
+      <c r="K269" s="4"/>
+    </row>
+    <row r="270" spans="11:11">
+      <c r="K270" s="4"/>
+    </row>
+    <row r="271" spans="11:11">
+      <c r="K271" s="4"/>
+    </row>
+    <row r="272" spans="11:11">
+      <c r="K272" s="4"/>
+    </row>
+    <row r="273" spans="11:11">
+      <c r="K273" s="4"/>
+    </row>
+    <row r="274" spans="11:11">
+      <c r="K274" s="4"/>
+    </row>
+    <row r="275" spans="11:11">
+      <c r="K275" s="4"/>
+    </row>
+    <row r="276" spans="11:11">
+      <c r="K276" s="4"/>
+    </row>
+    <row r="277" spans="11:11">
+      <c r="K277" s="4"/>
+    </row>
+    <row r="278" spans="11:11">
+      <c r="K278" s="4"/>
+    </row>
+    <row r="279" spans="11:11">
+      <c r="K279" s="4"/>
+    </row>
+    <row r="280" spans="11:11">
+      <c r="K280" s="4"/>
+    </row>
+    <row r="281" spans="11:11">
+      <c r="K281" s="4"/>
+    </row>
+    <row r="282" spans="11:11">
+      <c r="K282" s="4"/>
+    </row>
+    <row r="283" spans="11:11">
+      <c r="K283" s="4"/>
+    </row>
+    <row r="284" spans="11:11">
+      <c r="K284" s="4"/>
+    </row>
+    <row r="285" spans="11:11">
+      <c r="K285" s="4"/>
+    </row>
+    <row r="286" spans="11:11">
+      <c r="K286" s="4"/>
+    </row>
+    <row r="287" spans="11:11">
+      <c r="K287" s="4"/>
+    </row>
+    <row r="288" spans="11:11">
+      <c r="K288" s="4"/>
+    </row>
+    <row r="289" spans="11:11">
+      <c r="K289" s="4"/>
+    </row>
+    <row r="290" spans="11:11">
+      <c r="K290" s="4"/>
+    </row>
+    <row r="291" spans="11:11">
+      <c r="K291" s="4"/>
+    </row>
+    <row r="292" spans="11:11">
+      <c r="K292" s="4"/>
+    </row>
+    <row r="293" spans="11:11">
+      <c r="K293" s="4"/>
+    </row>
+    <row r="294" spans="11:11">
+      <c r="K294" s="4"/>
+    </row>
+    <row r="295" spans="11:11">
+      <c r="K295" s="4"/>
+    </row>
+    <row r="296" spans="11:11">
+      <c r="K296" s="4"/>
+    </row>
+    <row r="297" spans="11:11">
+      <c r="K297" s="4"/>
+    </row>
+    <row r="298" spans="11:11">
+      <c r="K298" s="4"/>
+    </row>
+    <row r="299" spans="11:11">
+      <c r="K299" s="4"/>
+    </row>
+    <row r="300" spans="11:11">
+      <c r="K300" s="4"/>
+    </row>
+    <row r="301" spans="11:11">
+      <c r="K301" s="4"/>
+    </row>
+    <row r="302" spans="11:11">
+      <c r="K302" s="4"/>
+    </row>
+    <row r="303" spans="11:11">
+      <c r="K303" s="4"/>
+    </row>
+    <row r="304" spans="11:11">
+      <c r="K304" s="4"/>
+    </row>
+    <row r="305" spans="11:11">
+      <c r="K305" s="4"/>
+    </row>
+    <row r="306" spans="11:11">
+      <c r="K306" s="4"/>
+    </row>
+    <row r="307" spans="11:11">
+      <c r="K307" s="4"/>
+    </row>
+    <row r="308" spans="11:11">
+      <c r="K308" s="4"/>
+    </row>
+    <row r="309" spans="11:11">
+      <c r="K309" s="4"/>
+    </row>
+    <row r="310" spans="11:11">
+      <c r="K310" s="4"/>
+    </row>
+    <row r="311" spans="11:11">
+      <c r="K311" s="4"/>
+    </row>
+    <row r="312" spans="11:11">
+      <c r="K312" s="4"/>
+    </row>
+    <row r="313" spans="11:11">
+      <c r="K313" s="4"/>
+    </row>
+    <row r="314" spans="11:11">
+      <c r="K314" s="4"/>
+    </row>
+    <row r="315" spans="11:11">
+      <c r="K315" s="4"/>
+    </row>
+    <row r="316" spans="11:11">
+      <c r="K316" s="4"/>
+    </row>
+    <row r="317" spans="11:11">
+      <c r="K317" s="4"/>
+    </row>
+    <row r="318" spans="11:11">
+      <c r="K318" s="4"/>
+    </row>
+    <row r="319" spans="11:11">
+      <c r="K319" s="4"/>
+    </row>
+    <row r="320" spans="11:11">
+      <c r="K320" s="4"/>
+    </row>
+    <row r="321" spans="11:11">
+      <c r="K321" s="4"/>
+    </row>
+    <row r="322" spans="11:11">
+      <c r="K322" s="4"/>
+    </row>
+    <row r="323" spans="11:11">
+      <c r="K323" s="4"/>
+    </row>
+    <row r="324" spans="11:11">
+      <c r="K324" s="4"/>
+    </row>
+    <row r="325" spans="11:11">
+      <c r="K325" s="4"/>
+    </row>
+    <row r="326" spans="11:11">
+      <c r="K326" s="4"/>
+    </row>
+    <row r="327" spans="11:11">
+      <c r="K327" s="4"/>
+    </row>
+    <row r="328" spans="11:11">
+      <c r="K328" s="4"/>
+    </row>
+    <row r="329" spans="11:11">
+      <c r="K329" s="4"/>
+    </row>
+    <row r="330" spans="11:11">
+      <c r="K330" s="4"/>
+    </row>
+    <row r="331" spans="11:11">
+      <c r="K331" s="4"/>
+    </row>
+    <row r="332" spans="11:11">
+      <c r="K332" s="4"/>
+    </row>
+    <row r="333" spans="11:11">
+      <c r="K333" s="4"/>
+    </row>
+    <row r="334" spans="11:11">
+      <c r="K334" s="4"/>
+    </row>
+    <row r="335" spans="11:11">
+      <c r="K335" s="4"/>
+    </row>
+    <row r="336" spans="11:11">
+      <c r="K336" s="4"/>
+    </row>
+    <row r="337" spans="11:11">
+      <c r="K337" s="4"/>
+    </row>
+    <row r="338" spans="11:11">
+      <c r="K338" s="4"/>
+    </row>
+    <row r="339" spans="11:11">
+      <c r="K339" s="4"/>
+    </row>
+    <row r="340" spans="11:11">
+      <c r="K340" s="4"/>
+    </row>
+    <row r="341" spans="11:11">
+      <c r="K341" s="4"/>
+    </row>
+    <row r="342" spans="11:11">
+      <c r="K342" s="4"/>
+    </row>
+    <row r="343" spans="11:11">
+      <c r="K343" s="4"/>
+    </row>
+    <row r="344" spans="11:11">
+      <c r="K344" s="4"/>
+    </row>
+    <row r="345" spans="11:11">
+      <c r="K345" s="4"/>
+    </row>
+    <row r="346" spans="11:11">
+      <c r="K346" s="4"/>
+    </row>
+    <row r="347" spans="11:11">
+      <c r="K347" s="4"/>
+    </row>
+    <row r="348" spans="11:11">
+      <c r="K348" s="4"/>
+    </row>
+    <row r="349" spans="11:11">
+      <c r="K349" s="4"/>
+    </row>
+    <row r="350" spans="11:11">
+      <c r="K350" s="4"/>
+    </row>
+    <row r="351" spans="11:11">
+      <c r="K351" s="4"/>
+    </row>
+    <row r="352" spans="11:11">
+      <c r="K352" s="4"/>
+    </row>
+    <row r="353" spans="11:11">
+      <c r="K353" s="4"/>
+    </row>
+    <row r="354" spans="11:11">
+      <c r="K354" s="4"/>
+    </row>
+    <row r="355" spans="11:11">
+      <c r="K355" s="4"/>
+    </row>
+    <row r="356" spans="11:11">
+      <c r="K356" s="4"/>
+    </row>
+    <row r="357" spans="11:11">
+      <c r="K357" s="4"/>
+    </row>
+    <row r="358" spans="11:11">
+      <c r="K358" s="4"/>
+    </row>
+    <row r="359" spans="11:11">
+      <c r="K359" s="4"/>
+    </row>
+    <row r="360" spans="11:11">
+      <c r="K360" s="4"/>
+    </row>
+    <row r="361" spans="11:11">
+      <c r="K361" s="4"/>
+    </row>
+    <row r="362" spans="11:11">
+      <c r="K362" s="4"/>
+    </row>
+    <row r="363" spans="11:11">
+      <c r="K363" s="4"/>
+    </row>
+    <row r="364" spans="11:11">
+      <c r="K364" s="4"/>
+    </row>
+    <row r="365" spans="11:11">
+      <c r="K365" s="4"/>
+    </row>
+    <row r="366" spans="11:11">
+      <c r="K366" s="4"/>
+    </row>
+    <row r="367" spans="11:11">
+      <c r="K367" s="4"/>
+    </row>
+    <row r="368" spans="11:11">
+      <c r="K368" s="4"/>
+    </row>
+    <row r="369" spans="11:11">
+      <c r="K369" s="4"/>
+    </row>
+    <row r="370" spans="11:11">
+      <c r="K370" s="4"/>
+    </row>
+    <row r="371" spans="11:11">
+      <c r="K371" s="4"/>
+    </row>
+    <row r="372" spans="11:11">
+      <c r="K372" s="4"/>
+    </row>
+    <row r="373" spans="11:11">
+      <c r="K373" s="4"/>
+    </row>
+    <row r="374" spans="11:11">
+      <c r="K374" s="4"/>
+    </row>
+    <row r="375" spans="11:11">
+      <c r="K375" s="4"/>
+    </row>
+    <row r="376" spans="11:11">
+      <c r="K376" s="4"/>
+    </row>
+    <row r="377" spans="11:11">
+      <c r="K377" s="4"/>
+    </row>
+    <row r="378" spans="11:11">
+      <c r="K378" s="4"/>
+    </row>
+    <row r="379" spans="11:11">
+      <c r="K379" s="4"/>
+    </row>
+    <row r="380" spans="11:11">
+      <c r="K380" s="4"/>
+    </row>
+    <row r="381" spans="11:11">
+      <c r="K381" s="4"/>
+    </row>
+    <row r="382" spans="11:11">
+      <c r="K382" s="4"/>
+    </row>
+    <row r="383" spans="11:11">
+      <c r="K383" s="4"/>
+    </row>
+    <row r="384" spans="11:11">
+      <c r="K384" s="4"/>
+    </row>
+    <row r="385" spans="11:11">
+      <c r="K385" s="4"/>
+    </row>
+    <row r="386" spans="11:11">
+      <c r="K386" s="4"/>
+    </row>
+    <row r="387" spans="11:11">
+      <c r="K387" s="4"/>
+    </row>
+    <row r="388" spans="11:11">
+      <c r="K388" s="4"/>
+    </row>
+    <row r="389" spans="11:11">
+      <c r="K389" s="4"/>
+    </row>
+    <row r="390" spans="11:11">
+      <c r="K390" s="4"/>
+    </row>
+    <row r="391" spans="11:11">
+      <c r="K391" s="4"/>
+    </row>
+    <row r="392" spans="11:11">
+      <c r="K392" s="4"/>
+    </row>
+    <row r="393" spans="11:11">
+      <c r="K393" s="4"/>
+    </row>
+    <row r="394" spans="11:11">
+      <c r="K394" s="4"/>
+    </row>
+    <row r="395" spans="11:11">
+      <c r="K395" s="4"/>
+    </row>
+    <row r="396" spans="11:11">
+      <c r="K396" s="4"/>
+    </row>
+    <row r="397" spans="11:11">
+      <c r="K397" s="4"/>
+    </row>
+    <row r="398" spans="11:11">
+      <c r="K398" s="4"/>
+    </row>
+    <row r="399" spans="11:11">
+      <c r="K399" s="4"/>
+    </row>
+    <row r="400" spans="11:11">
+      <c r="K400" s="4"/>
+    </row>
+    <row r="401" spans="11:11">
+      <c r="K401" s="4"/>
+    </row>
+    <row r="402" spans="11:11">
+      <c r="K402" s="4"/>
+    </row>
+    <row r="403" spans="11:11">
+      <c r="K403" s="4"/>
+    </row>
+    <row r="404" spans="11:11">
+      <c r="K404" s="4"/>
+    </row>
+    <row r="405" spans="11:11">
+      <c r="K405" s="4"/>
+    </row>
+    <row r="406" spans="11:11">
+      <c r="K406" s="4"/>
+    </row>
+    <row r="407" spans="11:11">
+      <c r="K407" s="4"/>
+    </row>
+    <row r="408" spans="11:11">
+      <c r="K408" s="4"/>
+    </row>
+    <row r="409" spans="11:11">
+      <c r="K409" s="4"/>
+    </row>
+    <row r="410" spans="11:11">
+      <c r="K410" s="4"/>
+    </row>
+    <row r="411" spans="11:11">
+      <c r="K411" s="4"/>
+    </row>
+    <row r="412" spans="11:11">
+      <c r="K412" s="4"/>
+    </row>
+    <row r="413" spans="11:11">
+      <c r="K413" s="4"/>
+    </row>
+    <row r="414" spans="11:11">
+      <c r="K414" s="4"/>
+    </row>
+    <row r="415" spans="11:11">
+      <c r="K415" s="4"/>
+    </row>
+    <row r="416" spans="11:11">
+      <c r="K416" s="4"/>
+    </row>
+    <row r="417" spans="11:11">
+      <c r="K417" s="4"/>
+    </row>
+    <row r="418" spans="11:11">
+      <c r="K418" s="4"/>
+    </row>
+    <row r="419" spans="11:11">
+      <c r="K419" s="4"/>
+    </row>
+    <row r="420" spans="11:11">
+      <c r="K420" s="4"/>
+    </row>
+    <row r="421" spans="11:11">
+      <c r="K421" s="4"/>
+    </row>
+    <row r="422" spans="11:11">
+      <c r="K422" s="4"/>
+    </row>
+    <row r="423" spans="11:11">
+      <c r="K423" s="4"/>
+    </row>
+    <row r="424" spans="11:11">
+      <c r="K424" s="4"/>
+    </row>
+    <row r="425" spans="11:11">
+      <c r="K425" s="4"/>
+    </row>
+    <row r="426" spans="11:11">
+      <c r="K426" s="4"/>
+    </row>
+    <row r="427" spans="11:11">
+      <c r="K427" s="4"/>
+    </row>
+    <row r="428" spans="11:11">
+      <c r="K428" s="4"/>
+    </row>
+    <row r="429" spans="11:11">
+      <c r="K429" s="4"/>
+    </row>
+    <row r="430" spans="11:11">
+      <c r="K430" s="4"/>
+    </row>
+    <row r="431" spans="11:11">
+      <c r="K431" s="4"/>
+    </row>
+    <row r="432" spans="11:11">
+      <c r="K432" s="4"/>
+    </row>
+    <row r="433" spans="11:11">
+      <c r="K433" s="4"/>
+    </row>
+    <row r="434" spans="11:11">
+      <c r="K434" s="4"/>
+    </row>
+    <row r="435" spans="11:11">
+      <c r="K435" s="4"/>
+    </row>
+    <row r="436" spans="11:11">
+      <c r="K436" s="4"/>
+    </row>
+    <row r="437" spans="11:11">
+      <c r="K437" s="4"/>
+    </row>
+    <row r="438" spans="11:11">
+      <c r="K438" s="4"/>
+    </row>
+    <row r="439" spans="11:11">
+      <c r="K439" s="4"/>
+    </row>
+    <row r="440" spans="11:11">
+      <c r="K440" s="4"/>
+    </row>
+    <row r="441" spans="11:11">
+      <c r="K441" s="4"/>
+    </row>
+    <row r="442" spans="11:11">
+      <c r="K442" s="4"/>
+    </row>
+    <row r="443" spans="11:11">
+      <c r="K443" s="4"/>
+    </row>
+    <row r="444" spans="11:11">
+      <c r="K444" s="4"/>
+    </row>
+    <row r="445" spans="11:11">
+      <c r="K445" s="4"/>
+    </row>
+    <row r="446" spans="11:11">
+      <c r="K446" s="4"/>
+    </row>
+    <row r="447" spans="11:11">
+      <c r="K447" s="4"/>
+    </row>
+    <row r="448" spans="11:11">
+      <c r="K448" s="4"/>
+    </row>
+    <row r="449" spans="11:11">
+      <c r="K449" s="4"/>
+    </row>
+    <row r="450" spans="11:11">
+      <c r="K450" s="4"/>
+    </row>
+    <row r="451" spans="11:11">
+      <c r="K451" s="4"/>
+    </row>
+    <row r="452" spans="11:11">
+      <c r="K452" s="4"/>
+    </row>
+    <row r="453" spans="11:11">
+      <c r="K453" s="4"/>
+    </row>
+    <row r="454" spans="11:11">
+      <c r="K454" s="4"/>
+    </row>
+    <row r="455" spans="11:11">
+      <c r="K455" s="4"/>
+    </row>
+    <row r="456" spans="11:11">
+      <c r="K456" s="4"/>
+    </row>
+    <row r="457" spans="11:11">
+      <c r="K457" s="4"/>
+    </row>
+    <row r="458" spans="11:11">
+      <c r="K458" s="4"/>
+    </row>
+    <row r="459" spans="11:11">
+      <c r="K459" s="4"/>
+    </row>
+    <row r="460" spans="11:11">
+      <c r="K460" s="4"/>
+    </row>
+    <row r="461" spans="11:11">
+      <c r="K461" s="4"/>
+    </row>
+    <row r="462" spans="11:11">
+      <c r="K462" s="4"/>
+    </row>
+    <row r="463" spans="11:11">
+      <c r="K463" s="4"/>
+    </row>
+    <row r="464" spans="11:11">
+      <c r="K464" s="4"/>
+    </row>
+    <row r="465" spans="11:11">
+      <c r="K465" s="4"/>
+    </row>
+    <row r="466" spans="11:11">
+      <c r="K466" s="4"/>
+    </row>
+    <row r="467" spans="11:11">
+      <c r="K467" s="4"/>
+    </row>
+    <row r="468" spans="11:11">
+      <c r="K468" s="4"/>
+    </row>
+    <row r="469" spans="11:11">
+      <c r="K469" s="4"/>
+    </row>
+    <row r="470" spans="11:11">
+      <c r="K470" s="4"/>
+    </row>
+    <row r="471" spans="11:11">
+      <c r="K471" s="4"/>
+    </row>
+    <row r="472" spans="11:11">
+      <c r="K472" s="4"/>
+    </row>
+    <row r="473" spans="11:11">
+      <c r="K473" s="4"/>
+    </row>
+    <row r="474" spans="11:11">
+      <c r="K474" s="4"/>
+    </row>
+    <row r="475" spans="11:11">
+      <c r="K475" s="4"/>
+    </row>
+    <row r="476" spans="11:11">
+      <c r="K476" s="4"/>
+    </row>
+    <row r="477" spans="11:11">
+      <c r="K477" s="4"/>
+    </row>
+    <row r="478" spans="11:11">
+      <c r="K478" s="4"/>
+    </row>
+    <row r="479" spans="11:11">
+      <c r="K479" s="4"/>
+    </row>
+    <row r="480" spans="11:11">
+      <c r="K480" s="4"/>
+    </row>
+    <row r="481" spans="11:11">
+      <c r="K481" s="4"/>
+    </row>
+    <row r="482" spans="11:11">
+      <c r="K482" s="4"/>
+    </row>
+    <row r="483" spans="11:11">
+      <c r="K483" s="4"/>
+    </row>
+    <row r="484" spans="11:11">
+      <c r="K484" s="4"/>
+    </row>
+    <row r="485" spans="11:11">
+      <c r="K485" s="4"/>
+    </row>
+    <row r="486" spans="11:11">
+      <c r="K486" s="4"/>
+    </row>
+    <row r="487" spans="11:11">
+      <c r="K487" s="4"/>
+    </row>
+    <row r="488" spans="11:11">
+      <c r="K488" s="4"/>
+    </row>
+    <row r="489" spans="11:11">
+      <c r="K489" s="4"/>
+    </row>
+    <row r="490" spans="11:11">
+      <c r="K490" s="4"/>
+    </row>
+    <row r="491" spans="11:11">
+      <c r="K491" s="4"/>
+    </row>
+    <row r="492" spans="11:11">
+      <c r="K492" s="4"/>
+    </row>
+    <row r="493" spans="11:11">
+      <c r="K493" s="4"/>
+    </row>
+    <row r="494" spans="11:11">
+      <c r="K494" s="4"/>
+    </row>
+    <row r="495" spans="11:11">
+      <c r="K495" s="4"/>
+    </row>
+    <row r="496" spans="11:11">
+      <c r="K496" s="4"/>
+    </row>
+    <row r="497" spans="11:11">
+      <c r="K497" s="4"/>
+    </row>
+    <row r="498" spans="11:11">
+      <c r="K498" s="4"/>
+    </row>
+    <row r="499" spans="11:11">
+      <c r="K499" s="4"/>
+    </row>
+    <row r="500" spans="11:11">
+      <c r="K500" s="4"/>
+    </row>
+    <row r="501" spans="11:11">
+      <c r="K501" s="4"/>
+    </row>
+    <row r="502" spans="11:11">
+      <c r="K502" s="4"/>
+    </row>
+    <row r="503" spans="11:11">
+      <c r="K503" s="4"/>
+    </row>
+    <row r="504" spans="11:11">
+      <c r="K504" s="4"/>
+    </row>
+    <row r="505" spans="11:11">
+      <c r="K505" s="4"/>
+    </row>
+    <row r="506" spans="11:11">
+      <c r="K506" s="4"/>
+    </row>
+    <row r="507" spans="11:11">
+      <c r="K507" s="4"/>
+    </row>
+    <row r="508" spans="11:11">
+      <c r="K508" s="4"/>
+    </row>
+    <row r="509" spans="11:11">
+      <c r="K509" s="4"/>
+    </row>
+    <row r="510" spans="11:11">
+      <c r="K510" s="4"/>
+    </row>
+    <row r="511" spans="11:11">
+      <c r="K511" s="4"/>
+    </row>
+    <row r="512" spans="11:11">
+      <c r="K512" s="4"/>
+    </row>
+    <row r="513" spans="11:11">
+      <c r="K513" s="4"/>
+    </row>
+    <row r="514" spans="11:11">
+      <c r="K514" s="4"/>
+    </row>
+    <row r="515" spans="11:11">
+      <c r="K515" s="4"/>
+    </row>
+    <row r="516" spans="11:11">
+      <c r="K516" s="4"/>
+    </row>
+    <row r="517" spans="11:11">
+      <c r="K517" s="4"/>
+    </row>
+    <row r="518" spans="11:11">
+      <c r="K518" s="4"/>
+    </row>
+    <row r="519" spans="11:11">
+      <c r="K519" s="4"/>
+    </row>
+    <row r="520" spans="11:11">
+      <c r="K520" s="4"/>
+    </row>
+    <row r="521" spans="11:11">
+      <c r="K521" s="4"/>
+    </row>
+    <row r="522" spans="11:11">
+      <c r="K522" s="4"/>
+    </row>
+    <row r="523" spans="11:11">
+      <c r="K523" s="4"/>
+    </row>
+    <row r="524" spans="11:11">
+      <c r="K524" s="4"/>
+    </row>
+    <row r="525" spans="11:11">
+      <c r="K525" s="4"/>
+    </row>
+    <row r="526" spans="11:11">
+      <c r="K526" s="4"/>
+    </row>
+    <row r="527" spans="11:11">
+      <c r="K527" s="4"/>
+    </row>
+    <row r="528" spans="11:11">
+      <c r="K528" s="4"/>
+    </row>
+    <row r="529" spans="11:11">
+      <c r="K529" s="4"/>
+    </row>
+    <row r="530" spans="11:11">
+      <c r="K530" s="4"/>
+    </row>
+    <row r="531" spans="11:11">
+      <c r="K531" s="4"/>
+    </row>
+    <row r="532" spans="11:11">
+      <c r="K532" s="4"/>
+    </row>
+    <row r="533" spans="11:11">
+      <c r="K533" s="4"/>
+    </row>
+    <row r="534" spans="11:11">
+      <c r="K534" s="4"/>
+    </row>
+    <row r="535" spans="11:11">
+      <c r="K535" s="4"/>
+    </row>
+    <row r="536" spans="11:11">
+      <c r="K536" s="4"/>
+    </row>
+    <row r="537" spans="11:11">
+      <c r="K537" s="4"/>
+    </row>
+    <row r="538" spans="11:11">
+      <c r="K538" s="4"/>
+    </row>
+    <row r="539" spans="11:11">
+      <c r="K539" s="4"/>
+    </row>
+    <row r="540" spans="11:11">
+      <c r="K540" s="4"/>
+    </row>
+    <row r="541" spans="11:11">
+      <c r="K541" s="4"/>
+    </row>
+    <row r="542" spans="11:11">
+      <c r="K542" s="4"/>
+    </row>
+    <row r="543" spans="11:11">
+      <c r="K543" s="4"/>
+    </row>
+    <row r="544" spans="11:11">
+      <c r="K544" s="4"/>
+    </row>
+    <row r="545" spans="11:11">
+      <c r="K545" s="4"/>
+    </row>
+    <row r="546" spans="11:11">
+      <c r="K546" s="4"/>
+    </row>
+    <row r="547" spans="11:11">
+      <c r="K547" s="4"/>
+    </row>
+    <row r="548" spans="11:11">
+      <c r="K548" s="4"/>
+    </row>
+    <row r="549" spans="11:11">
+      <c r="K549" s="4"/>
+    </row>
+    <row r="550" spans="11:11">
+      <c r="K550" s="4"/>
+    </row>
+    <row r="551" spans="11:11">
+      <c r="K551" s="4"/>
+    </row>
+    <row r="552" spans="11:11">
+      <c r="K552" s="4"/>
+    </row>
+    <row r="553" spans="11:11">
+      <c r="K553" s="4"/>
+    </row>
+    <row r="554" spans="11:11">
+      <c r="K554" s="4"/>
+    </row>
+    <row r="555" spans="11:11">
+      <c r="K555" s="4"/>
+    </row>
+    <row r="556" spans="11:11">
+      <c r="K556" s="4"/>
+    </row>
+    <row r="557" spans="11:11">
+      <c r="K557" s="4"/>
+    </row>
+    <row r="558" spans="11:11">
+      <c r="K558" s="4"/>
+    </row>
+    <row r="559" spans="11:11">
+      <c r="K559" s="4"/>
+    </row>
+    <row r="560" spans="11:11">
+      <c r="K560" s="4"/>
+    </row>
+    <row r="561" spans="11:11">
+      <c r="K561" s="4"/>
+    </row>
+    <row r="562" spans="11:11">
+      <c r="K562" s="4"/>
+    </row>
+    <row r="563" spans="11:11">
+      <c r="K563" s="4"/>
+    </row>
+    <row r="564" spans="11:11">
+      <c r="K564" s="4"/>
+    </row>
+    <row r="565" spans="11:11">
+      <c r="K565" s="4"/>
+    </row>
+    <row r="566" spans="11:11">
+      <c r="K566" s="4"/>
+    </row>
+    <row r="567" spans="11:11">
+      <c r="K567" s="4"/>
+    </row>
+    <row r="568" spans="11:11">
+      <c r="K568" s="4"/>
+    </row>
+    <row r="569" spans="11:11">
+      <c r="K569" s="4"/>
+    </row>
+    <row r="570" spans="11:11">
+      <c r="K570" s="4"/>
+    </row>
+    <row r="571" spans="11:11">
+      <c r="K571" s="4"/>
+    </row>
+    <row r="572" spans="11:11">
+      <c r="K572" s="4"/>
+    </row>
+    <row r="573" spans="11:11">
+      <c r="K573" s="4"/>
+    </row>
+    <row r="574" spans="11:11">
+      <c r="K574" s="4"/>
+    </row>
+    <row r="575" spans="11:11">
+      <c r="K575" s="4"/>
+    </row>
+    <row r="576" spans="11:11">
+      <c r="K576" s="4"/>
+    </row>
+    <row r="577" spans="11:11">
+      <c r="K577" s="4"/>
+    </row>
+    <row r="578" spans="11:11">
+      <c r="K578" s="4"/>
+    </row>
+    <row r="579" spans="11:11">
+      <c r="K579" s="4"/>
+    </row>
+    <row r="580" spans="11:11">
+      <c r="K580" s="4"/>
+    </row>
+    <row r="581" spans="11:11">
+      <c r="K581" s="4"/>
+    </row>
+    <row r="582" spans="11:11">
+      <c r="K582" s="4"/>
+    </row>
+    <row r="583" spans="11:11">
+      <c r="K583" s="4"/>
+    </row>
+    <row r="584" spans="11:11">
+      <c r="K584" s="4"/>
+    </row>
+    <row r="585" spans="11:11">
+      <c r="K585" s="4"/>
+    </row>
+    <row r="586" spans="11:11">
+      <c r="K586" s="4"/>
+    </row>
+    <row r="587" spans="11:11">
+      <c r="K587" s="4"/>
+    </row>
+    <row r="588" spans="11:11">
+      <c r="K588" s="4"/>
+    </row>
+    <row r="589" spans="11:11">
+      <c r="K589" s="4"/>
+    </row>
+    <row r="590" spans="11:11">
+      <c r="K590" s="4"/>
+    </row>
+    <row r="591" spans="11:11">
+      <c r="K591" s="4"/>
+    </row>
+    <row r="592" spans="11:11">
+      <c r="K592" s="4"/>
+    </row>
+    <row r="593" spans="11:11">
+      <c r="K593" s="4"/>
+    </row>
+    <row r="594" spans="11:11">
+      <c r="K594" s="4"/>
+    </row>
+    <row r="595" spans="11:11">
+      <c r="K595" s="4"/>
+    </row>
+    <row r="596" spans="11:11">
+      <c r="K596" s="4"/>
+    </row>
+    <row r="597" spans="11:11">
+      <c r="K597" s="4"/>
+    </row>
+    <row r="598" spans="11:11">
+      <c r="K598" s="4"/>
+    </row>
+    <row r="599" spans="11:11">
+      <c r="K599" s="4"/>
+    </row>
+    <row r="600" spans="11:11">
+      <c r="K600" s="4"/>
+    </row>
+    <row r="601" spans="11:11">
+      <c r="K601" s="4"/>
+    </row>
+    <row r="602" spans="11:11">
+      <c r="K602" s="4"/>
+    </row>
+    <row r="603" spans="11:11">
+      <c r="K603" s="4"/>
+    </row>
+    <row r="604" spans="11:11">
+      <c r="K604" s="4"/>
+    </row>
+    <row r="605" spans="11:11">
+      <c r="K605" s="4"/>
+    </row>
+    <row r="606" spans="11:11">
+      <c r="K606" s="4"/>
+    </row>
+    <row r="607" spans="11:11">
+      <c r="K607" s="4"/>
+    </row>
+    <row r="608" spans="11:11">
+      <c r="K608" s="4"/>
+    </row>
+    <row r="609" spans="11:11">
+      <c r="K609" s="4"/>
+    </row>
+    <row r="610" spans="11:11">
+      <c r="K610" s="4"/>
+    </row>
+    <row r="611" spans="11:11">
+      <c r="K611" s="4"/>
+    </row>
+    <row r="612" spans="11:11">
+      <c r="K612" s="4"/>
+    </row>
+    <row r="613" spans="11:11">
+      <c r="K613" s="4"/>
+    </row>
+    <row r="614" spans="11:11">
+      <c r="K614" s="4"/>
+    </row>
+    <row r="615" spans="11:11">
+      <c r="K615" s="4"/>
+    </row>
+    <row r="616" spans="11:11">
+      <c r="K616" s="4"/>
+    </row>
+    <row r="617" spans="11:11">
+      <c r="K617" s="4"/>
+    </row>
+    <row r="618" spans="11:11">
+      <c r="K618" s="4"/>
+    </row>
+    <row r="619" spans="11:11">
+      <c r="K619" s="4"/>
+    </row>
+    <row r="620" spans="11:11">
+      <c r="K620" s="4"/>
+    </row>
+    <row r="621" spans="11:11">
+      <c r="K621" s="4"/>
+    </row>
+    <row r="622" spans="11:11">
+      <c r="K622" s="4"/>
+    </row>
+    <row r="623" spans="11:11">
+      <c r="K623" s="4"/>
+    </row>
+    <row r="624" spans="11:11">
+      <c r="K624" s="4"/>
+    </row>
+    <row r="625" spans="11:11">
+      <c r="K625" s="4"/>
+    </row>
+    <row r="626" spans="11:11">
+      <c r="K626" s="4"/>
+    </row>
+    <row r="627" spans="11:11">
+      <c r="K627" s="4"/>
+    </row>
+    <row r="628" spans="11:11">
+      <c r="K628" s="4"/>
+    </row>
+    <row r="629" spans="11:11">
+      <c r="K629" s="4"/>
+    </row>
+    <row r="630" spans="11:11">
+      <c r="K630" s="4"/>
+    </row>
+    <row r="631" spans="11:11">
+      <c r="K631" s="4"/>
+    </row>
+    <row r="632" spans="11:11">
+      <c r="K632" s="4"/>
+    </row>
+    <row r="633" spans="11:11">
+      <c r="K633" s="4"/>
+    </row>
+    <row r="634" spans="11:11">
+      <c r="K634" s="4"/>
+    </row>
+    <row r="635" spans="11:11">
+      <c r="K635" s="4"/>
+    </row>
+    <row r="636" spans="11:11">
+      <c r="K636" s="4"/>
+    </row>
+    <row r="637" spans="11:11">
+      <c r="K637" s="4"/>
+    </row>
+    <row r="638" spans="11:11">
+      <c r="K638" s="4"/>
+    </row>
+    <row r="639" spans="11:11">
+      <c r="K639" s="4"/>
+    </row>
+    <row r="640" spans="11:11">
+      <c r="K640" s="4"/>
+    </row>
+    <row r="641" spans="11:11">
+      <c r="K641" s="4"/>
+    </row>
+    <row r="642" spans="11:11">
+      <c r="K642" s="4"/>
+    </row>
+    <row r="643" spans="11:11">
+      <c r="K643" s="4"/>
+    </row>
+    <row r="644" spans="11:11">
+      <c r="K644" s="4"/>
+    </row>
+    <row r="645" spans="11:11">
+      <c r="K645" s="4"/>
+    </row>
+    <row r="646" spans="11:11">
+      <c r="K646" s="4"/>
+    </row>
+    <row r="647" spans="11:11">
+      <c r="K647" s="4"/>
+    </row>
+    <row r="648" spans="11:11">
+      <c r="K648" s="4"/>
+    </row>
+    <row r="649" spans="11:11">
+      <c r="K649" s="4"/>
+    </row>
+    <row r="650" spans="11:11">
+      <c r="K650" s="4"/>
+    </row>
+    <row r="651" spans="11:11">
+      <c r="K651" s="4"/>
+    </row>
+    <row r="652" spans="11:11">
+      <c r="K652" s="4"/>
+    </row>
+    <row r="653" spans="11:11">
+      <c r="K653" s="4"/>
+    </row>
+    <row r="654" spans="11:11">
+      <c r="K654" s="4"/>
+    </row>
+    <row r="655" spans="11:11">
+      <c r="K655" s="4"/>
+    </row>
+    <row r="656" spans="11:11">
+      <c r="K656" s="4"/>
+    </row>
+    <row r="657" spans="11:11">
+      <c r="K657" s="4"/>
+    </row>
+    <row r="658" spans="11:11">
+      <c r="K658" s="4"/>
+    </row>
+    <row r="659" spans="11:11">
+      <c r="K659" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
